--- a/media/Excel/109_data.xlsx
+++ b/media/Excel/109_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47376E28-6B6A-4F58-B2C0-8319F88E6EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48BA3C-45FB-4663-9D7F-2619ABD94730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必修" sheetId="1" r:id="rId1"/>
@@ -1554,10 +1554,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3D 數位內容與應用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>策略與管理的系統思維</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1695,10 +1691,6 @@
   </si>
   <si>
     <t>鄉村社會教育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡學:消費與文化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2141,12 +2133,19 @@
   <si>
     <t>Linux 系統管理實務(一)$~$Linux 系統管理實務（一，入門）</t>
   </si>
+  <si>
+    <t>咖啡學：消費與文化</t>
+  </si>
+  <si>
+    <t>3D數位內容與應用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,6 +2431,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -2796,7 +2803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3032,6 +3039,15 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3112,12 +3128,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3423,201 +3433,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="A1" s="97" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -3767,8 +3777,8 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="112" t="s">
-        <v>564</v>
+      <c r="A23" s="85" t="s">
+        <v>562</v>
       </c>
       <c r="B23" s="15">
         <v>0.5</v>
@@ -3788,8 +3798,8 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="112" t="s">
-        <v>565</v>
+      <c r="A24" s="85" t="s">
+        <v>563</v>
       </c>
       <c r="B24" s="15">
         <v>0.5</v>
@@ -3850,25 +3860,25 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="85" t="s">
+      <c r="F27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3889,7 +3899,7 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3909,7 +3919,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
@@ -3921,7 +3931,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>1</v>
@@ -3933,7 +3943,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>1</v>
@@ -3999,7 +4009,7 @@
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B4" s="41">
         <v>3</v>
@@ -4025,7 +4035,7 @@
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B5" s="41">
         <v>3</v>
@@ -4077,7 +4087,7 @@
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>1</v>
@@ -4107,7 +4117,7 @@
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B8" s="41">
         <v>3</v>
@@ -4159,7 +4169,7 @@
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B10" s="41">
         <v>3</v>
@@ -4175,7 +4185,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J10" s="41">
         <v>3</v>
@@ -4192,8 +4202,8 @@
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
-      <c r="E11" s="113" t="s">
-        <v>566</v>
+      <c r="E11" s="86" t="s">
+        <v>564</v>
       </c>
       <c r="F11" s="38">
         <v>3</v>
@@ -4201,7 +4211,7 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J11" s="41">
         <v>3</v>
@@ -4245,7 +4255,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F13" s="41">
         <v>3</v>
@@ -4253,7 +4263,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J13" s="41">
         <v>3</v>
@@ -4271,7 +4281,7 @@
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F14" s="41">
         <v>3</v>
@@ -4279,7 +4289,7 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J14" s="41">
         <v>3</v>
@@ -4371,8 +4381,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4396,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4464,7 +4474,7 @@
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N2" s="38">
         <v>3</v>
@@ -4499,7 +4509,7 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N3" s="38">
         <v>3</v>
@@ -4536,7 +4546,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N4" s="38">
         <v>2</v>
@@ -4573,7 +4583,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="84" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N5" s="84">
         <v>3</v>
@@ -4610,7 +4620,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="84" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N6" s="84">
         <v>3</v>
@@ -4728,7 +4738,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F10" s="38">
         <v>3</v>
@@ -4918,7 +4928,7 @@
     </row>
     <row r="16" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B16" s="38">
         <v>3</v>
@@ -5083,7 +5093,7 @@
     </row>
     <row r="21" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="38">
         <v>1</v>
@@ -5165,7 +5175,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38" t="s">
-        <v>448</v>
+        <v>566</v>
       </c>
       <c r="J23" s="38">
         <v>3</v>
@@ -5198,7 +5208,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J24" s="38">
         <v>3</v>
@@ -5231,7 +5241,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J25" s="38">
         <v>3</v>
@@ -5264,7 +5274,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J26" s="38">
         <v>3</v>
@@ -5297,7 +5307,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J27" s="38">
         <v>3</v>
@@ -5330,7 +5340,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J28" s="38">
         <v>3</v>
@@ -5363,7 +5373,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J29" s="38">
         <v>1</v>
@@ -5396,7 +5406,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J30" s="38">
         <v>1</v>
@@ -5676,7 +5686,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B5" s="31">
         <v>2</v>
@@ -5692,7 +5702,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J5" s="31">
         <v>3</v>
@@ -6228,7 +6238,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F21" s="34">
         <v>3</v>
@@ -6618,7 +6628,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N32" s="31">
         <v>2</v>
@@ -6882,7 +6892,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J40" s="61">
         <v>2</v>
@@ -6916,7 +6926,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J41" s="68">
         <v>3</v>
@@ -6950,7 +6960,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="80" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J42" s="81">
         <v>2</v>
@@ -6976,7 +6986,7 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F43" s="64">
         <v>3</v>
@@ -7005,7 +7015,7 @@
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F44" s="64">
         <v>3</v>
@@ -7034,7 +7044,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F45" s="66">
         <v>2</v>
@@ -7064,7 +7074,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F46" s="66">
         <v>2</v>
@@ -7094,7 +7104,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F47" s="66">
         <v>2</v>
@@ -7124,7 +7134,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="67" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F48" s="72">
         <v>3</v>
@@ -7154,7 +7164,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F49" s="72">
         <v>3</v>
@@ -7184,7 +7194,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="80" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F50" s="83">
         <v>3</v>
@@ -7213,7 +7223,7 @@
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="80" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F51" s="83">
         <v>3</v>
@@ -7224,7 +7234,7 @@
       <c r="J51" s="65"/>
       <c r="K51" s="65"/>
       <c r="M51" s="63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N51" s="64">
         <v>2</v>
@@ -7243,7 +7253,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="80" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F52" s="83">
         <v>2</v>
@@ -7254,7 +7264,7 @@
       <c r="J52" s="65"/>
       <c r="K52" s="65"/>
       <c r="M52" s="63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N52" s="64">
         <v>2</v>
@@ -7273,7 +7283,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="82" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F53" s="83">
         <v>2</v>
@@ -7284,7 +7294,7 @@
       <c r="J53" s="65"/>
       <c r="K53" s="65"/>
       <c r="M53" s="63" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N53" s="64">
         <v>2</v>
@@ -7295,7 +7305,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A54" s="60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B54" s="61">
         <v>3</v>
@@ -7303,7 +7313,7 @@
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="M54" s="63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N54" s="64">
         <v>3</v>
@@ -7314,7 +7324,7 @@
     </row>
     <row r="55" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B55" s="61">
         <v>2</v>
@@ -7325,7 +7335,7 @@
       <c r="F55" s="32"/>
       <c r="G55" s="28"/>
       <c r="M55" s="63" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N55" s="72">
         <v>3</v>
@@ -7336,7 +7346,7 @@
     </row>
     <row r="56" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="60" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B56" s="61">
         <v>3</v>
@@ -7344,17 +7354,17 @@
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56"/>
-      <c r="F56" s="103" t="s">
-        <v>522</v>
-      </c>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="105"/>
+      <c r="F56" s="106" t="s">
+        <v>520</v>
+      </c>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="108"/>
       <c r="L56" s="28"/>
       <c r="M56" s="80" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N56" s="79">
         <v>2</v>
@@ -7365,7 +7375,7 @@
     </row>
     <row r="57" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" s="61">
         <v>2</v>
@@ -7373,15 +7383,15 @@
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="111"/>
       <c r="L57" s="28"/>
       <c r="M57" s="80" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N57" s="79">
         <v>2</v>
@@ -7392,7 +7402,7 @@
     </row>
     <row r="58" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B58" s="61">
         <v>2</v>
@@ -7400,15 +7410,15 @@
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="108"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="111"/>
       <c r="L58" s="28"/>
       <c r="M58" s="80" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N58" s="79">
         <v>2</v>
@@ -7419,7 +7429,7 @@
     </row>
     <row r="59" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="63" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B59" s="61">
         <v>3</v>
@@ -7427,15 +7437,15 @@
       <c r="C59" s="26"/>
       <c r="D59" s="62"/>
       <c r="E59"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="108"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="111"/>
       <c r="L59" s="28"/>
       <c r="M59" s="80" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N59" s="79">
         <v>2</v>
@@ -7445,7 +7455,7 @@
     </row>
     <row r="60" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="80" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B60" s="81">
         <v>3</v>
@@ -7453,15 +7463,15 @@
       <c r="C60" s="26"/>
       <c r="D60" s="62"/>
       <c r="E60"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="108"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="111"/>
       <c r="L60" s="28"/>
       <c r="M60" s="80" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N60" s="79">
         <v>2</v>
@@ -7471,7 +7481,7 @@
     </row>
     <row r="61" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="80" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B61" s="81">
         <v>3</v>
@@ -7479,15 +7489,15 @@
       <c r="C61" s="26"/>
       <c r="D61" s="62"/>
       <c r="E61"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="108"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="111"/>
       <c r="L61" s="28"/>
       <c r="M61" s="80" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N61" s="79">
         <v>3</v>
@@ -7497,7 +7507,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A62" s="80" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B62" s="81">
         <v>3</v>
@@ -7505,18 +7515,18 @@
       <c r="C62" s="26"/>
       <c r="D62" s="62"/>
       <c r="E62"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="108"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="111"/>
       <c r="L62" s="28"/>
       <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A63" s="80" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B63" s="81">
         <v>3</v>
@@ -7524,19 +7534,19 @@
       <c r="C63" s="26"/>
       <c r="D63" s="62"/>
       <c r="E63"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="108"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="111"/>
       <c r="L63" s="28"/>
       <c r="M63"/>
       <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="80" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B64" s="81">
         <v>2</v>
@@ -7544,19 +7554,19 @@
       <c r="C64" s="26"/>
       <c r="D64" s="62"/>
       <c r="E64"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
-      <c r="K64" s="111"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="114"/>
       <c r="L64" s="28"/>
       <c r="M64"/>
       <c r="N64" s="70"/>
     </row>
     <row r="65" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="80" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B65" s="81">
         <v>1</v>
@@ -7573,7 +7583,7 @@
     </row>
     <row r="66" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="80" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B66" s="81">
         <v>3</v>
@@ -7590,7 +7600,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" s="80" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B67" s="81">
         <v>3</v>
@@ -7669,8 +7679,8 @@
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7714,7 +7724,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>1</v>
@@ -7726,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="73" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>1</v>
@@ -8345,7 +8355,7 @@
         <v>321</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
@@ -8368,7 +8378,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J20" s="20">
         <v>3</v>
@@ -8402,7 +8412,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J21" s="20">
         <v>3</v>
@@ -8470,7 +8480,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J23" s="20">
         <v>3</v>
@@ -8504,7 +8514,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J24" s="20">
         <v>2</v>
@@ -8538,7 +8548,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J25" s="20">
         <v>2</v>
@@ -8572,7 +8582,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J26" s="20">
         <v>3</v>
@@ -8606,7 +8616,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J27" s="20">
         <v>2</v>
@@ -8640,7 +8650,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J28" s="20">
         <v>3</v>
@@ -8674,7 +8684,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J29" s="20">
         <v>3</v>
@@ -8708,7 +8718,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J30" s="20">
         <v>3</v>
@@ -8742,7 +8752,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J31" s="20">
         <v>3</v>
@@ -8776,7 +8786,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J32" s="20">
         <v>2</v>
@@ -8784,7 +8794,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N32" s="20">
         <v>3</v>
@@ -8802,7 +8812,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F33" s="20">
         <v>3</v>
@@ -8810,7 +8820,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="80" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J33" s="80">
         <v>3</v>
@@ -8844,7 +8854,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="80" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J34" s="80">
         <v>2</v>
@@ -8852,7 +8862,7 @@
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N34" s="60">
         <v>3</v>
@@ -8878,15 +8888,15 @@
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
       <c r="I35" s="80" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J35" s="80">
         <v>3</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="37" t="s">
-        <v>484</v>
+      <c r="M35" s="87" t="s">
+        <v>565</v>
       </c>
       <c r="N35" s="20">
         <v>2</v>
@@ -8912,7 +8922,7 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="80" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J36" s="80">
         <v>3</v>
@@ -8920,7 +8930,7 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N36" s="20">
         <v>3</v>
@@ -8930,7 +8940,7 @@
     </row>
     <row r="37" spans="1:16" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37" s="20">
         <v>3</v>
@@ -8946,7 +8956,7 @@
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J37" s="80">
         <v>2</v>
@@ -8954,7 +8964,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N37" s="20">
         <v>3</v>
@@ -8964,7 +8974,7 @@
     </row>
     <row r="38" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B38" s="20">
         <v>2</v>
@@ -8980,10 +8990,10 @@
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>2</v>
@@ -8992,7 +9002,7 @@
         <v>3</v>
       </c>
       <c r="M38" s="80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N38" s="77">
         <v>2</v>
@@ -9002,7 +9012,7 @@
     </row>
     <row r="39" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B39" s="20">
         <v>2</v>
@@ -9026,7 +9036,7 @@
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="80" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N39" s="77">
         <v>2</v>
@@ -9036,7 +9046,7 @@
     </row>
     <row r="40" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="76" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B40" s="77">
         <v>2</v>
@@ -9060,7 +9070,7 @@
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="80" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N40" s="77">
         <v>2</v>
@@ -9070,7 +9080,7 @@
     </row>
     <row r="41" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="78" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B41" s="77">
         <v>2</v>
@@ -9096,7 +9106,7 @@
     </row>
     <row r="42" spans="1:16" ht="51.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="78" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B42" s="77">
         <v>2</v>
@@ -9104,7 +9114,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F42" s="20">
         <v>2</v>
@@ -9122,7 +9132,7 @@
     </row>
     <row r="43" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="78" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B43" s="77">
         <v>3</v>
@@ -9130,7 +9140,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F43" s="20">
         <v>2</v>
@@ -9148,7 +9158,7 @@
     </row>
     <row r="44" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="78" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B44" s="77">
         <v>3</v>
@@ -9156,7 +9166,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="76" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F44" s="77">
         <v>2</v>

--- a/media/Excel/109_data.xlsx
+++ b/media/Excel/109_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48BA3C-45FB-4663-9D7F-2619ABD94730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A74D7-ECB7-45F9-B7E1-4ABFFE7112BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必修" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="通識(人文&amp;社會)" sheetId="4" r:id="rId4"/>
     <sheet name="通識(自然&amp;特色)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="573">
   <si>
     <t>共同必修
 (12學分)</t>
@@ -330,6 +330,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Linux系統管理實務(一)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>共通核心職能課程</t>
   </si>
   <si>
@@ -1691,6 +1695,10 @@
   </si>
   <si>
     <t>鄉村社會教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡學:消費與文化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1946,10 +1954,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>資訊管理與決策科學次領域(13選8)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>資訊管理專題與個案(三)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2125,27 +2129,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>運動生理學</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D數位內容與應用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux 系統管理實務（一，入門）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料視覺化</t>
+  </si>
+  <si>
+    <t>資訊管理與決策科學次領域(15選8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業實習 (三)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D實境應用開發</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>進階程式設計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>資管系服務學習(上)</t>
   </si>
   <si>
     <t>資管系服務學習(下)</t>
-  </si>
-  <si>
-    <t>Linux 系統管理實務(一)$~$Linux 系統管理實務（一，入門）</t>
-  </si>
-  <si>
-    <t>咖啡學：消費與文化</t>
-  </si>
-  <si>
-    <t>3D數位內容與應用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,15 +2270,6 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2395,22 +2412,6 @@
     <font>
       <sz val="20"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2423,23 +2424,15 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF7030A0"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2803,7 +2796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2877,15 +2870,15 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2895,35 +2888,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2931,22 +2924,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2973,80 +2963,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3075,58 +3047,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3415,8 +3387,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3433,201 +3405,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="A1" s="92" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -3642,34 +3614,34 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="58" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:11" s="57" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54" t="s">
+      <c r="C17" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="57"/>
+      <c r="H17" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -3777,8 +3749,8 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="85" t="s">
-        <v>562</v>
+      <c r="A23" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="B23" s="15">
         <v>0.5</v>
@@ -3798,8 +3770,8 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="85" t="s">
-        <v>563</v>
+      <c r="A24" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="B24" s="15">
         <v>0.5</v>
@@ -3860,25 +3832,25 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3897,10 +3869,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
@@ -3918,454 +3890,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="51.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="40">
+        <v>3</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" s="40">
+        <v>3</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="40">
+        <v>3</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="40">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="40">
+        <v>3</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="J3" s="40">
+        <v>3</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="40">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="40">
+        <v>3</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="40">
+        <v>3</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="40">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="40">
+        <v>3</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="40">
+        <v>3</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="40">
+        <v>3</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="40">
+        <v>3</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="J6" s="40">
+        <v>3</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="40">
+        <v>3</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="40">
+        <v>3</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>518</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="41">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="41">
-        <v>3</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="41">
-        <v>3</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="41">
-        <v>3</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="40">
+        <v>3</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="40">
+        <v>3</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="41">
-        <v>3</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="41">
-        <v>3</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="F9" s="40">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="40">
+        <v>3</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="B4" s="41">
-        <v>3</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="41">
-        <v>3</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42" t="s">
+      <c r="B10" s="40">
+        <v>3</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="40">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="41">
-        <v>3</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="B5" s="41">
-        <v>3</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="41">
-        <v>3</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="J5" s="41">
-        <v>3</v>
-      </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="41">
-        <v>3</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41" t="s">
+      <c r="J10" s="40">
+        <v>3</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="40">
+        <v>3</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="41">
-        <v>3</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="41">
-        <v>3</v>
-      </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="41">
-        <v>3</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F11" s="40">
+        <v>3</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" s="40">
+        <v>3</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="40">
+        <v>3</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="40">
+        <v>3</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="40">
+        <v>3</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="37">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="37">
+        <v>3</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="40">
+        <v>3</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="F14" s="37">
+        <v>3</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="J14" s="37">
+        <v>3</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="40">
+        <v>3</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="I15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="41">
-        <v>3</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="B8" s="41">
-        <v>3</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="41">
-        <v>3</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="41">
-        <v>3</v>
-      </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="41">
-        <v>3</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="41">
-        <v>3</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="41">
-        <v>3</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="B10" s="41">
-        <v>3</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="41">
-        <v>3</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="J10" s="41">
-        <v>3</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="41">
-        <v>3</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="F11" s="38">
-        <v>3</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="J11" s="41">
-        <v>3</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="41">
-        <v>3</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="41">
-        <v>3</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="41">
-        <v>3</v>
-      </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="41">
-        <v>3</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="F13" s="41">
-        <v>3</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
-        <v>516</v>
-      </c>
-      <c r="J13" s="41">
-        <v>3</v>
-      </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="41">
-        <v>3</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="F14" s="41">
-        <v>3</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="J14" s="41">
-        <v>3</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="41">
-        <v>3</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="J15" s="40">
+        <v>3</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="41">
-        <v>3</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="B16" s="40">
+        <v>3</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="I16" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="J16" s="40">
+        <v>3</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" s="16" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="41">
-        <v>3</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="40">
+        <v>3</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="17"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4381,8 +4407,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4405,8 +4431,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>506</v>
+      <c r="A1" s="48" t="s">
+        <v>508</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4417,7 +4443,7 @@
       <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4427,7 +4453,7 @@
       <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4437,7 +4463,7 @@
       <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4448,980 +4474,984 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="44" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:19" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="38">
-        <v>3</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="38">
-        <v>3</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="N2" s="38">
-        <v>3</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="45"/>
-    </row>
-    <row r="3" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="F2" s="37">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="37">
+        <v>3</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="N2" s="37">
+        <v>2</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="38">
-        <v>3</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="38">
-        <v>3</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="N3" s="38">
-        <v>3</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="F3" s="37">
+        <v>3</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="37">
+        <v>3</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="N3" s="77">
+        <v>3</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+    </row>
+    <row r="4" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="38">
-        <v>3</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="37">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="38">
-        <v>3</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="38">
-        <v>3</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="N4" s="38">
-        <v>2</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-    </row>
-    <row r="5" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="F4" s="37">
+        <v>3</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="37">
+        <v>3</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="N4" s="77">
+        <v>3</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+    </row>
+    <row r="5" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="38">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5" s="38">
-        <v>3</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="38">
-        <v>3</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="84" t="s">
-        <v>527</v>
-      </c>
-      <c r="N5" s="84">
-        <v>3</v>
-      </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="B5" s="37">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="37">
+        <v>3</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="37">
+        <v>3</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="82" t="s">
+        <v>568</v>
+      </c>
+      <c r="N5" s="82">
+        <v>3</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+    </row>
+    <row r="6" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="38">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="38">
-        <v>3</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="38">
-        <v>3</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="84" t="s">
-        <v>528</v>
-      </c>
-      <c r="N6" s="84">
-        <v>3</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="45"/>
-    </row>
-    <row r="7" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="37">
+        <v>3</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="37">
+        <v>3</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="37">
+        <v>3</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="N6" s="82">
+        <v>3</v>
+      </c>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="44"/>
+    </row>
+    <row r="7" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="38">
-        <v>3</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="38">
-        <v>3</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="38">
-        <v>3</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-    </row>
-    <row r="8" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="B7" s="37">
+        <v>3</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="37">
+        <v>3</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="N7" s="82">
+        <v>3</v>
+      </c>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="38">
-        <v>3</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="38">
-        <v>3</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="38">
-        <v>3</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="B8" s="37">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="37">
+        <v>3</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="37">
+        <v>3</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="38">
-        <v>3</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="38">
-        <v>3</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="B9" s="37">
+        <v>3</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="37">
+        <v>3</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="38">
+        <v>441</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="45"/>
+    </row>
+    <row r="10" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="37">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="37">
+        <v>3</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" s="37">
+        <v>3</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="45"/>
+    </row>
+    <row r="11" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="37">
+        <v>3</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="37">
+        <v>3</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="J11" s="37">
+        <v>3</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="45"/>
+    </row>
+    <row r="12" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="37">
+        <v>3</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="37">
+        <v>3</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="37">
         <v>1</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="46"/>
-    </row>
-    <row r="10" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="38">
-        <v>3</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="F10" s="38">
-        <v>3</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="38">
-        <v>3</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="38">
-        <v>3</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="38">
-        <v>3</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="J11" s="38">
-        <v>3</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="38">
-        <v>3</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="J12" s="38">
-        <v>3</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="38">
-        <v>1</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="38">
-        <v>3</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="J13" s="38">
-        <v>3</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="F13" s="37">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="37">
+        <v>3</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-    </row>
-    <row r="14" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="37">
+        <v>3</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="38">
-        <v>3</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="38">
-        <v>3</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" s="38">
-        <v>3</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="F14" s="37">
+        <v>3</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="J14" s="37">
+        <v>3</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="37">
+        <v>3</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="38">
-        <v>3</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="38">
-        <v>3</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="37">
+        <v>3</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J15" s="38">
-        <v>3</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
+        <v>368</v>
+      </c>
+      <c r="J15" s="37">
+        <v>3</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-    </row>
-    <row r="16" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" s="38">
-        <v>3</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="38">
-        <v>3</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="J16" s="38">
-        <v>3</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+    </row>
+    <row r="16" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="37">
+        <v>3</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="37">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" s="37">
+        <v>3</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-    </row>
-    <row r="17" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="38">
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+    </row>
+    <row r="17" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="37">
         <v>1</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="38">
-        <v>3</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="J17" s="38">
-        <v>3</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="37">
+        <v>3</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="J17" s="37">
+        <v>3</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="38">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="38">
-        <v>3</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="J18" s="38">
-        <v>3</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="37">
+        <v>3</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="37">
+        <v>3</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="37">
+        <v>3</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="38">
-        <v>3</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="38">
-        <v>3</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="J19" s="38">
-        <v>3</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="37">
+        <v>3</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="37">
+        <v>3</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="J19" s="37">
+        <v>3</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="38">
-        <v>3</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="38">
-        <v>3</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="J20" s="38">
-        <v>3</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="37">
+        <v>3</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="37">
+        <v>3</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="37">
+        <v>3</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-    </row>
-    <row r="21" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+    </row>
+    <row r="21" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="37">
+        <v>2</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="38">
-        <v>1</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="38">
-        <v>3</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>3</v>
       </c>
       <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-    </row>
-    <row r="22" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="38">
-        <v>3</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
+      <c r="Q21" s="44"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="22" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="38">
-        <v>3</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="38">
-        <v>3</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="B22" s="37">
+        <v>3</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="J22" s="37">
+        <v>3</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="38">
-        <v>3</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+    </row>
+    <row r="23" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="38">
-        <v>2</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="J23" s="38">
-        <v>3</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="38"/>
+      <c r="B23" s="37">
+        <v>3</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="37">
+        <v>3</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="J23" s="37">
+        <v>3</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-    </row>
-    <row r="24" spans="1:19" s="44" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="38">
-        <v>3</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="1:19" s="43" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="38">
-        <v>2</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="J24" s="38">
-        <v>3</v>
-      </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="38"/>
+      <c r="B24" s="37">
+        <v>3</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="37">
+        <v>3</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="J24" s="37">
+        <v>3</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-    </row>
-    <row r="25" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="38">
-        <v>3</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+    </row>
+    <row r="25" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="38">
-        <v>3</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38" t="s">
+      <c r="B25" s="37">
+        <v>3</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="37">
+        <v>3</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="J25" s="38">
-        <v>3</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="J25" s="37">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-    </row>
-    <row r="26" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="38">
-        <v>3</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38" t="s">
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="38">
-        <v>3</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="J26" s="38">
-        <v>3</v>
-      </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="B26" s="37">
+        <v>3</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="37">
+        <v>3</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" s="37">
+        <v>1</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-    </row>
-    <row r="27" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="38">
-        <v>3</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38" t="s">
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+    </row>
+    <row r="27" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="38">
-        <v>3</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="37">
+        <v>3</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="37">
+        <v>3</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="J27" s="38">
-        <v>3</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="J27" s="37">
+        <v>3</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-    </row>
-    <row r="28" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="B28" s="38">
-        <v>3</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="38">
-        <v>3</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="J28" s="38">
-        <v>3</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+    </row>
+    <row r="28" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="B28" s="37">
+        <v>3</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="37">
+        <v>3</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="40">
+        <v>3</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-    </row>
-    <row r="29" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="38">
-        <v>3</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="38">
-        <v>3</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+    </row>
+    <row r="29" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="37">
+        <v>3</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="37">
+        <v>3</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="J29" s="38">
-        <v>1</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+        <v>501</v>
+      </c>
+      <c r="J29" s="37">
+        <v>3</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-    </row>
-    <row r="30" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="38">
-        <v>3</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="38">
-        <v>3</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="J30" s="38">
-        <v>1</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+    </row>
+    <row r="30" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="37">
+        <v>3</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="37">
+        <v>3</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="J30" s="40">
+        <v>3</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+    </row>
+    <row r="31" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5438,11 +5468,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-    </row>
-    <row r="32" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="44"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+    </row>
+    <row r="32" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5459,9 +5489,9 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="45"/>
-    </row>
-    <row r="33" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="44"/>
+    </row>
+    <row r="33" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5478,9 +5508,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="45"/>
-    </row>
-    <row r="34" spans="1:19" s="44" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q33" s="44"/>
+    </row>
+    <row r="34" spans="1:19" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5497,9 +5527,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5515,7 +5545,7 @@
   </sheetPr>
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -5529,12 +5559,12 @@
     <col min="9" max="9" width="56.375" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="32"/>
     <col min="13" max="13" width="56.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="71"/>
+    <col min="14" max="14" width="9.125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -5546,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>1</v>
@@ -5558,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>1</v>
@@ -5570,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>1</v>
@@ -5584,7 +5614,7 @@
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="31">
         <v>3</v>
@@ -5592,7 +5622,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="34">
         <v>3</v>
@@ -5600,7 +5630,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J2" s="31">
         <v>2</v>
@@ -5608,7 +5638,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N2" s="31">
         <v>2</v>
@@ -5618,7 +5648,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="31">
         <v>2</v>
@@ -5626,7 +5656,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="34">
         <v>2</v>
@@ -5634,7 +5664,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J3" s="31">
         <v>2</v>
@@ -5642,7 +5672,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N3" s="31">
         <v>2</v>
@@ -5652,7 +5682,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="31">
         <v>2</v>
@@ -5660,7 +5690,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" s="34">
         <v>3</v>
@@ -5668,7 +5698,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J4" s="31">
         <v>3</v>
@@ -5676,7 +5706,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N4" s="31">
         <v>2</v>
@@ -5686,7 +5716,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B5" s="31">
         <v>2</v>
@@ -5694,7 +5724,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="34">
         <v>3</v>
@@ -5702,7 +5732,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J5" s="31">
         <v>3</v>
@@ -5710,7 +5740,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N5" s="31">
         <v>3</v>
@@ -5720,7 +5750,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="31">
         <v>2</v>
@@ -5728,7 +5758,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" s="34">
         <v>3</v>
@@ -5736,7 +5766,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J6" s="31">
         <v>3</v>
@@ -5744,7 +5774,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N6" s="31">
         <v>3</v>
@@ -5754,7 +5784,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" s="31">
         <v>2</v>
@@ -5762,7 +5792,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="34">
         <v>3</v>
@@ -5770,7 +5800,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J7" s="31">
         <v>2</v>
@@ -5778,7 +5808,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N7" s="31">
         <v>3</v>
@@ -5788,7 +5818,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="31">
         <v>2</v>
@@ -5796,7 +5826,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="34">
         <v>2</v>
@@ -5804,7 +5834,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J8" s="31">
         <v>2</v>
@@ -5812,7 +5842,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N8" s="31">
         <v>3</v>
@@ -5822,7 +5852,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="31">
         <v>3</v>
@@ -5830,7 +5860,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F9" s="34">
         <v>3</v>
@@ -5838,7 +5868,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J9" s="31">
         <v>2</v>
@@ -5846,7 +5876,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" s="31">
         <v>3</v>
@@ -5856,7 +5886,7 @@
     </row>
     <row r="10" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="31">
         <v>2</v>
@@ -5864,7 +5894,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" s="34">
         <v>2</v>
@@ -5872,7 +5902,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J10" s="31">
         <v>2</v>
@@ -5880,17 +5910,17 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="31">
         <v>2</v>
@@ -5898,7 +5928,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" s="34">
         <v>2</v>
@@ -5906,7 +5936,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J11" s="31">
         <v>2</v>
@@ -5914,7 +5944,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="31">
         <v>2</v>
@@ -5924,7 +5954,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="31">
         <v>2</v>
@@ -5932,7 +5962,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F12" s="34">
         <v>2</v>
@@ -5940,7 +5970,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J12" s="31">
         <v>2</v>
@@ -5948,7 +5978,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N12" s="31">
         <v>2</v>
@@ -5958,7 +5988,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="31">
         <v>2</v>
@@ -5966,7 +5996,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" s="34">
         <v>2</v>
@@ -5974,7 +6004,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J13" s="31">
         <v>2</v>
@@ -5982,7 +6012,7 @@
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="31">
         <v>2</v>
@@ -5992,7 +6022,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="31">
         <v>2</v>
@@ -6000,7 +6030,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" s="34">
         <v>2</v>
@@ -6008,7 +6038,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J14" s="31">
         <v>2</v>
@@ -6016,7 +6046,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N14" s="31">
         <v>2</v>
@@ -6026,7 +6056,7 @@
     </row>
     <row r="15" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="31">
         <v>2</v>
@@ -6034,7 +6064,7 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15" s="34">
         <v>2</v>
@@ -6042,7 +6072,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J15" s="31">
         <v>2</v>
@@ -6050,7 +6080,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="31">
         <v>3</v>
@@ -6060,7 +6090,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="31">
         <v>2</v>
@@ -6068,7 +6098,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F16" s="34">
         <v>2</v>
@@ -6076,7 +6106,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J16" s="31">
         <v>3</v>
@@ -6084,7 +6114,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="31">
         <v>2</v>
@@ -6094,7 +6124,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="31">
         <v>3</v>
@@ -6102,7 +6132,7 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F17" s="34">
         <v>2</v>
@@ -6110,7 +6140,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J17" s="31">
         <v>3</v>
@@ -6118,7 +6148,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" s="31">
         <v>2</v>
@@ -6128,7 +6158,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="31">
         <v>2</v>
@@ -6136,7 +6166,7 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F18" s="34">
         <v>2</v>
@@ -6144,7 +6174,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J18" s="31">
         <v>1</v>
@@ -6152,7 +6182,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" s="31">
         <v>3</v>
@@ -6162,7 +6192,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="31">
         <v>1</v>
@@ -6170,7 +6200,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F19" s="34">
         <v>1</v>
@@ -6178,7 +6208,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J19" s="31">
         <v>2</v>
@@ -6186,7 +6216,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N19" s="31">
         <v>3</v>
@@ -6196,7 +6226,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" s="31">
         <v>3</v>
@@ -6204,7 +6234,7 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" s="34">
         <v>3</v>
@@ -6212,7 +6242,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J20" s="31">
         <v>3</v>
@@ -6220,7 +6250,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N20" s="31">
         <v>3</v>
@@ -6230,7 +6260,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" s="31">
         <v>2</v>
@@ -6238,7 +6268,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="25" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F21" s="34">
         <v>3</v>
@@ -6246,7 +6276,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J21" s="31">
         <v>2</v>
@@ -6254,7 +6284,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" s="31">
         <v>3</v>
@@ -6264,7 +6294,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
@@ -6272,7 +6302,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" s="34">
         <v>2</v>
@@ -6280,7 +6310,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J22" s="31">
         <v>3</v>
@@ -6288,7 +6318,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N22" s="31">
         <v>3</v>
@@ -6298,7 +6328,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="31">
         <v>3</v>
@@ -6306,7 +6336,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F23" s="34">
         <v>3</v>
@@ -6314,7 +6344,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J23" s="31">
         <v>3</v>
@@ -6322,7 +6352,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N23" s="31">
         <v>1</v>
@@ -6332,7 +6362,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="31">
         <v>2</v>
@@ -6340,7 +6370,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="34">
         <v>3</v>
@@ -6348,7 +6378,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" s="31">
         <v>2</v>
@@ -6356,7 +6386,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" s="31">
         <v>2</v>
@@ -6366,7 +6396,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" s="31">
         <v>2</v>
@@ -6374,7 +6404,7 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F25" s="34">
         <v>3</v>
@@ -6382,7 +6412,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J25" s="31">
         <v>3</v>
@@ -6390,7 +6420,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N25" s="31">
         <v>3</v>
@@ -6400,7 +6430,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="31">
         <v>2</v>
@@ -6408,7 +6438,7 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F26" s="34">
         <v>2</v>
@@ -6416,7 +6446,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J26" s="31">
         <v>3</v>
@@ -6424,7 +6454,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" s="31">
         <v>3</v>
@@ -6434,7 +6464,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" s="31">
         <v>2</v>
@@ -6442,7 +6472,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F27" s="34">
         <v>3</v>
@@ -6450,7 +6480,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J27" s="31">
         <v>2</v>
@@ -6458,7 +6488,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" s="31">
         <v>3</v>
@@ -6468,7 +6498,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B28" s="31">
         <v>2</v>
@@ -6476,7 +6506,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F28" s="34">
         <v>2</v>
@@ -6484,7 +6514,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J28" s="31">
         <v>2</v>
@@ -6492,7 +6522,7 @@
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="31">
         <v>2</v>
@@ -6502,7 +6532,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" s="31">
         <v>2</v>
@@ -6510,7 +6540,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F29" s="34">
         <v>3</v>
@@ -6518,7 +6548,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J29" s="31">
         <v>2</v>
@@ -6526,7 +6556,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N29" s="31">
         <v>3</v>
@@ -6536,7 +6566,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="31">
         <v>3</v>
@@ -6544,7 +6574,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F30" s="34">
         <v>3</v>
@@ -6552,7 +6582,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J30" s="31">
         <v>2</v>
@@ -6560,7 +6590,7 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N30" s="31">
         <v>3</v>
@@ -6570,7 +6600,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="31">
         <v>3</v>
@@ -6578,7 +6608,7 @@
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F31" s="34">
         <v>3</v>
@@ -6586,7 +6616,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J31" s="31">
         <v>2</v>
@@ -6594,7 +6624,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" s="31">
         <v>3</v>
@@ -6604,7 +6634,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B32" s="31">
         <v>3</v>
@@ -6612,7 +6642,7 @@
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F32" s="34">
         <v>2</v>
@@ -6620,7 +6650,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J32" s="31">
         <v>2</v>
@@ -6628,7 +6658,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N32" s="31">
         <v>2</v>
@@ -6638,7 +6668,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B33" s="31">
         <v>3</v>
@@ -6646,7 +6676,7 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F33" s="34">
         <v>3</v>
@@ -6654,7 +6684,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J33" s="31">
         <v>3</v>
@@ -6662,7 +6692,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N33" s="31">
         <v>3</v>
@@ -6672,7 +6702,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B34" s="31">
         <v>3</v>
@@ -6680,7 +6710,7 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" s="34">
         <v>3</v>
@@ -6688,7 +6718,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J34" s="31">
         <v>3</v>
@@ -6696,7 +6726,7 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N34" s="31">
         <v>3</v>
@@ -6706,7 +6736,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B35" s="31">
         <v>3</v>
@@ -6714,7 +6744,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" s="34">
         <v>3</v>
@@ -6722,7 +6752,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J35" s="31">
         <v>3</v>
@@ -6730,7 +6760,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N35" s="31">
         <v>2</v>
@@ -6740,7 +6770,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" s="31">
         <v>3</v>
@@ -6748,7 +6778,7 @@
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -6756,7 +6786,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J36" s="31">
         <v>3</v>
@@ -6764,7 +6794,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N36" s="31">
         <v>3</v>
@@ -6774,7 +6804,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B37" s="31">
         <v>3</v>
@@ -6782,7 +6812,7 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F37" s="34">
         <v>2</v>
@@ -6790,7 +6820,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J37" s="31">
         <v>2</v>
@@ -6798,7 +6828,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N37" s="31">
         <v>3</v>
@@ -6808,7 +6838,7 @@
     </row>
     <row r="38" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" s="31">
         <v>3</v>
@@ -6816,7 +6846,7 @@
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F38" s="34">
         <v>3</v>
@@ -6824,7 +6854,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J38" s="31">
         <v>2</v>
@@ -6832,7 +6862,7 @@
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N38" s="31">
         <v>3</v>
@@ -6842,7 +6872,7 @@
     </row>
     <row r="39" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="31">
         <v>2</v>
@@ -6850,7 +6880,7 @@
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F39" s="34">
         <v>3</v>
@@ -6858,7 +6888,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J39" s="31">
         <v>3</v>
@@ -6866,7 +6896,7 @@
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N39" s="31">
         <v>2</v>
@@ -6876,7 +6906,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B40" s="31">
         <v>2</v>
@@ -6884,23 +6914,23 @@
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F40" s="34">
         <v>3</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="69" t="s">
-        <v>460</v>
-      </c>
-      <c r="J40" s="61">
-        <v>2</v>
-      </c>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
+      <c r="I40" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="J40" s="60">
+        <v>2</v>
+      </c>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
       <c r="M40" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N40" s="31">
         <v>3</v>
@@ -6910,7 +6940,7 @@
     </row>
     <row r="41" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B41" s="31">
         <v>2</v>
@@ -6918,23 +6948,23 @@
       <c r="C41" s="20"/>
       <c r="D41" s="22"/>
       <c r="E41" s="25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F41" s="34">
         <v>2</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="63" t="s">
-        <v>461</v>
-      </c>
-      <c r="J41" s="68">
-        <v>3</v>
-      </c>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
+      <c r="I41" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="J41" s="67">
+        <v>3</v>
+      </c>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
       <c r="M41" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N41" s="31">
         <v>2</v>
@@ -6944,7 +6974,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B42" s="31">
         <v>2</v>
@@ -6952,23 +6982,23 @@
       <c r="C42" s="20"/>
       <c r="D42" s="22"/>
       <c r="E42" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F42" s="34">
         <v>2</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="J42" s="81">
-        <v>2</v>
-      </c>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
+      <c r="I42" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="J42" s="63">
+        <v>2</v>
+      </c>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
       <c r="M42" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N42" s="31">
         <v>3</v>
@@ -6978,26 +7008,26 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B43" s="31">
         <v>3</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="63" t="s">
-        <v>455</v>
-      </c>
-      <c r="F43" s="64">
-        <v>3</v>
-      </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
+      <c r="E43" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="F43" s="63">
+        <v>3</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="J43" s="35"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
       <c r="M43" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="31">
         <v>3</v>
@@ -7007,26 +7037,26 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B44" s="31">
         <v>3</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="67" t="s">
-        <v>456</v>
-      </c>
-      <c r="F44" s="64">
-        <v>3</v>
-      </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+      <c r="E44" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="F44" s="63">
+        <v>3</v>
+      </c>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="J44" s="35"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N44" s="31">
         <v>2</v>
@@ -7036,27 +7066,27 @@
     </row>
     <row r="45" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="31">
         <v>3</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="67" t="s">
-        <v>457</v>
-      </c>
-      <c r="F45" s="66">
-        <v>2</v>
-      </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="E45" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="F45" s="65">
+        <v>2</v>
+      </c>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="28"/>
       <c r="M45" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N45" s="31">
         <v>3</v>
@@ -7066,27 +7096,27 @@
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B46" s="31">
         <v>3</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="67" t="s">
-        <v>458</v>
-      </c>
-      <c r="F46" s="66">
-        <v>2</v>
-      </c>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="E46" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="F46" s="65">
+        <v>2</v>
+      </c>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
       <c r="L46" s="28"/>
       <c r="M46" s="25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N46" s="31">
         <v>3</v>
@@ -7096,27 +7126,27 @@
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" s="31">
         <v>3</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="F47" s="66">
-        <v>2</v>
-      </c>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="E47" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="F47" s="65">
+        <v>2</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
       <c r="L47" s="21"/>
       <c r="M47" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N47" s="31">
         <v>2</v>
@@ -7126,27 +7156,27 @@
     </row>
     <row r="48" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" s="31">
         <v>3</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="F48" s="72">
-        <v>3</v>
-      </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
+      <c r="E48" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="F48" s="71">
+        <v>3</v>
+      </c>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
       <c r="L48" s="21"/>
       <c r="M48" s="25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N48" s="31">
         <v>2</v>
@@ -7156,27 +7186,27 @@
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="31">
         <v>3</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="F49" s="72">
-        <v>3</v>
-      </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
+      <c r="E49" s="62" t="s">
+        <v>512</v>
+      </c>
+      <c r="F49" s="71">
+        <v>3</v>
+      </c>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
       <c r="L49" s="21"/>
       <c r="M49" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" s="31">
         <v>3</v>
@@ -7186,26 +7216,26 @@
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" s="31">
         <v>3</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="80" t="s">
-        <v>551</v>
-      </c>
-      <c r="F50" s="83">
-        <v>3</v>
-      </c>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
+      <c r="E50" s="62" t="s">
+        <v>552</v>
+      </c>
+      <c r="F50" s="34">
+        <v>3</v>
+      </c>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
       <c r="M50" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" s="31">
         <v>2</v>
@@ -7215,28 +7245,28 @@
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B51" s="31">
         <v>3</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="80" t="s">
-        <v>552</v>
-      </c>
-      <c r="F51" s="83">
-        <v>3</v>
-      </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="M51" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="N51" s="64">
+      <c r="E51" s="62" t="s">
+        <v>553</v>
+      </c>
+      <c r="F51" s="34">
+        <v>3</v>
+      </c>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="M51" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="N51" s="63">
         <v>2</v>
       </c>
       <c r="O51" s="26"/>
@@ -7245,28 +7275,28 @@
     </row>
     <row r="52" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" s="31">
         <v>3</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="F52" s="83">
-        <v>2</v>
-      </c>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="M52" s="63" t="s">
-        <v>463</v>
-      </c>
-      <c r="N52" s="64">
+      <c r="E52" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="F52" s="34">
+        <v>2</v>
+      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="M52" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="N52" s="63">
         <v>2</v>
       </c>
       <c r="O52" s="26"/>
@@ -7275,28 +7305,28 @@
     </row>
     <row r="53" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B53" s="31">
         <v>3</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="82" t="s">
-        <v>554</v>
-      </c>
-      <c r="F53" s="83">
-        <v>2</v>
-      </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="M53" s="63" t="s">
-        <v>464</v>
-      </c>
-      <c r="N53" s="64">
+      <c r="E53" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="F53" s="34">
+        <v>2</v>
+      </c>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="M53" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="N53" s="63">
         <v>2</v>
       </c>
       <c r="O53" s="26"/>
@@ -7304,18 +7334,18 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A54" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="B54" s="61">
-        <v>3</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="M54" s="63" t="s">
-        <v>465</v>
-      </c>
-      <c r="N54" s="64">
+      <c r="A54" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B54" s="60">
+        <v>3</v>
+      </c>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="M54" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="N54" s="63">
         <v>3</v>
       </c>
       <c r="O54" s="26"/>
@@ -7323,290 +7353,290 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="60" t="s">
-        <v>451</v>
-      </c>
-      <c r="B55" s="61">
-        <v>2</v>
-      </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="B55" s="60">
+        <v>2</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55"/>
       <c r="F55" s="32"/>
       <c r="G55" s="28"/>
-      <c r="M55" s="63" t="s">
-        <v>489</v>
-      </c>
-      <c r="N55" s="72">
-        <v>3</v>
-      </c>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
+      <c r="M55" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="N55" s="71">
+        <v>3</v>
+      </c>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
       <c r="R55" s="28"/>
     </row>
     <row r="56" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="60" t="s">
-        <v>452</v>
-      </c>
-      <c r="B56" s="61">
-        <v>3</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
+      <c r="A56" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" s="60">
+        <v>3</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
       <c r="E56"/>
-      <c r="F56" s="106" t="s">
-        <v>520</v>
-      </c>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108"/>
+      <c r="F56" s="101" t="s">
+        <v>521</v>
+      </c>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="103"/>
       <c r="L56" s="28"/>
-      <c r="M56" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="N56" s="79">
-        <v>2</v>
-      </c>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
+      <c r="M56" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="N56" s="63">
+        <v>2</v>
+      </c>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
       <c r="R56" s="28"/>
     </row>
     <row r="57" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="60" t="s">
-        <v>453</v>
-      </c>
-      <c r="B57" s="61">
-        <v>2</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="A57" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="B57" s="60">
+        <v>2</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="111"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="106"/>
       <c r="L57" s="28"/>
-      <c r="M57" s="80" t="s">
-        <v>549</v>
-      </c>
-      <c r="N57" s="79">
-        <v>2</v>
-      </c>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
+      <c r="M57" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="N57" s="63">
+        <v>2</v>
+      </c>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
       <c r="R57" s="28"/>
     </row>
     <row r="58" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="60" t="s">
-        <v>454</v>
-      </c>
-      <c r="B58" s="61">
-        <v>2</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="A58" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" s="60">
+        <v>2</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="111"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="106"/>
       <c r="L58" s="28"/>
-      <c r="M58" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="N58" s="79">
-        <v>2</v>
-      </c>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
+      <c r="M58" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="N58" s="63">
+        <v>2</v>
+      </c>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
       <c r="R58" s="28"/>
     </row>
     <row r="59" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="63" t="s">
-        <v>513</v>
-      </c>
-      <c r="B59" s="61">
+      <c r="A59" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="B59" s="60">
         <v>3</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="62"/>
+      <c r="D59" s="61"/>
       <c r="E59"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="111"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="106"/>
       <c r="L59" s="28"/>
-      <c r="M59" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="N59" s="79">
-        <v>2</v>
-      </c>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
+      <c r="M59" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="N59" s="63">
+        <v>2</v>
+      </c>
+      <c r="O59" s="75"/>
+      <c r="P59" s="75"/>
     </row>
     <row r="60" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="80" t="s">
-        <v>555</v>
-      </c>
-      <c r="B60" s="81">
+      <c r="A60" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="B60" s="63">
         <v>3</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="62"/>
+      <c r="D60" s="61"/>
       <c r="E60"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="111"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="106"/>
       <c r="L60" s="28"/>
-      <c r="M60" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="N60" s="79">
-        <v>2</v>
-      </c>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
+      <c r="M60" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="N60" s="63">
+        <v>2</v>
+      </c>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
     </row>
     <row r="61" spans="1:18" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="B61" s="81">
+      <c r="A61" s="62" t="s">
+        <v>557</v>
+      </c>
+      <c r="B61" s="63">
         <v>3</v>
       </c>
       <c r="C61" s="26"/>
-      <c r="D61" s="62"/>
+      <c r="D61" s="61"/>
       <c r="E61"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="110"/>
-      <c r="K61" s="111"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
       <c r="L61" s="28"/>
-      <c r="M61" s="80" t="s">
-        <v>550</v>
-      </c>
-      <c r="N61" s="79">
-        <v>3</v>
-      </c>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
+      <c r="M61" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="N61" s="63">
+        <v>3</v>
+      </c>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A62" s="80" t="s">
-        <v>557</v>
-      </c>
-      <c r="B62" s="81">
+      <c r="A62" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="B62" s="63">
         <v>3</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="61"/>
       <c r="E62"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="111"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="106"/>
       <c r="L62" s="28"/>
-      <c r="N62" s="70"/>
+      <c r="N62" s="69"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A63" s="80" t="s">
-        <v>558</v>
-      </c>
-      <c r="B63" s="81">
+      <c r="A63" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="B63" s="63">
         <v>3</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="62"/>
+      <c r="D63" s="61"/>
       <c r="E63"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="111"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="106"/>
       <c r="L63" s="28"/>
       <c r="M63"/>
-      <c r="N63" s="70"/>
+      <c r="N63" s="69"/>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="B64" s="81">
+      <c r="A64" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="B64" s="63">
         <v>2</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="62"/>
+      <c r="D64" s="61"/>
       <c r="E64"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="114"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="109"/>
       <c r="L64" s="28"/>
       <c r="M64"/>
-      <c r="N64" s="70"/>
+      <c r="N64" s="69"/>
     </row>
     <row r="65" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="80" t="s">
-        <v>529</v>
-      </c>
-      <c r="B65" s="81">
+      <c r="A65" s="62" t="s">
+        <v>530</v>
+      </c>
+      <c r="B65" s="63">
         <v>1</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="62"/>
+      <c r="D65" s="61"/>
       <c r="E65"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="J65" s="35"/>
       <c r="K65" s="28"/>
       <c r="M65"/>
-      <c r="N65" s="70"/>
+      <c r="N65" s="69"/>
     </row>
     <row r="66" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="80" t="s">
-        <v>560</v>
-      </c>
-      <c r="B66" s="81">
+      <c r="A66" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="B66" s="63">
         <v>3</v>
       </c>
       <c r="C66" s="26"/>
-      <c r="D66" s="62"/>
+      <c r="D66" s="61"/>
       <c r="E66"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="J66" s="35"/>
       <c r="K66" s="28"/>
       <c r="M66"/>
-      <c r="N66" s="70"/>
+      <c r="N66" s="69"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A67" s="80" t="s">
-        <v>561</v>
-      </c>
-      <c r="B67" s="81">
+      <c r="A67" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="B67" s="63">
         <v>3</v>
       </c>
       <c r="C67" s="26"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="61"/>
       <c r="E67"/>
       <c r="F67" s="32"/>
       <c r="G67" s="28"/>
@@ -7614,7 +7644,7 @@
       <c r="J67" s="35"/>
       <c r="K67" s="28"/>
       <c r="M67"/>
-      <c r="N67" s="70"/>
+      <c r="N67" s="69"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="E68"/>
@@ -7624,7 +7654,7 @@
       <c r="J68" s="35"/>
       <c r="K68" s="28"/>
       <c r="M68"/>
-      <c r="N68" s="70"/>
+      <c r="N68" s="69"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="E69"/>
@@ -7634,7 +7664,7 @@
       <c r="J69" s="35"/>
       <c r="K69" s="28"/>
       <c r="M69"/>
-      <c r="N69" s="70"/>
+      <c r="N69" s="69"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="E70"/>
@@ -7644,7 +7674,7 @@
       <c r="J70" s="35"/>
       <c r="K70" s="28"/>
       <c r="M70"/>
-      <c r="N70" s="70"/>
+      <c r="N70" s="69"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="E71"/>
@@ -7679,28 +7709,30 @@
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.625" customWidth="1"/>
-    <col min="15" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="78" customWidth="1"/>
+    <col min="3" max="4" width="18" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="78" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72" style="78" customWidth="1"/>
+    <col min="10" max="10" width="12" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81" style="78" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="78"/>
+    <col min="15" max="16" width="18" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
@@ -7712,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
@@ -7724,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>1</v>
@@ -7735,8 +7767,8 @@
       <c r="L1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="73" t="s">
-        <v>504</v>
+      <c r="M1" s="72" t="s">
+        <v>506</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>1</v>
@@ -7750,7 +7782,7 @@
     </row>
     <row r="2" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="20">
         <v>2</v>
@@ -7758,7 +7790,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" s="20">
         <v>2</v>
@@ -7766,15 +7798,15 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J2" s="20">
         <v>2</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="37" t="s">
-        <v>259</v>
+      <c r="M2" s="36" t="s">
+        <v>260</v>
       </c>
       <c r="N2" s="20">
         <v>3</v>
@@ -7784,7 +7816,7 @@
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="20">
         <v>2</v>
@@ -7792,7 +7824,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F3" s="20">
         <v>2</v>
@@ -7800,15 +7832,15 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J3" s="20">
         <v>2</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="37" t="s">
-        <v>263</v>
+      <c r="M3" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="N3" s="20">
         <v>3</v>
@@ -7818,7 +7850,7 @@
     </row>
     <row r="4" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="20">
         <v>2</v>
@@ -7826,7 +7858,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="20">
         <v>3</v>
@@ -7834,15 +7866,15 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J4" s="20">
         <v>3</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="37" t="s">
-        <v>267</v>
+      <c r="M4" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="N4" s="20">
         <v>3</v>
@@ -7852,7 +7884,7 @@
     </row>
     <row r="5" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5" s="20">
         <v>3</v>
@@ -7860,7 +7892,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" s="20">
         <v>2</v>
@@ -7868,15 +7900,15 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J5" s="20">
         <v>3</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="37" t="s">
-        <v>271</v>
+      <c r="M5" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="N5" s="20">
         <v>3</v>
@@ -7886,7 +7918,7 @@
     </row>
     <row r="6" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B6" s="20">
         <v>3</v>
@@ -7894,7 +7926,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F6" s="20">
         <v>2</v>
@@ -7902,15 +7934,15 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J6" s="20">
         <v>2</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="37" t="s">
-        <v>276</v>
+      <c r="M6" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="N6" s="20">
         <v>2</v>
@@ -7920,7 +7952,7 @@
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B7" s="20">
         <v>3</v>
@@ -7928,7 +7960,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" s="20">
         <v>2</v>
@@ -7936,15 +7968,15 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J7" s="20">
         <v>3</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="37" t="s">
-        <v>279</v>
+      <c r="M7" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="N7" s="20">
         <v>3</v>
@@ -7954,7 +7986,7 @@
     </row>
     <row r="8" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" s="20">
         <v>2</v>
@@ -7962,7 +7994,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F8" s="20">
         <v>2</v>
@@ -7970,15 +8002,15 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J8" s="20">
         <v>2</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="37" t="s">
-        <v>283</v>
+      <c r="M8" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="N8" s="20">
         <v>1</v>
@@ -7988,7 +8020,7 @@
     </row>
     <row r="9" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B9" s="20">
         <v>2</v>
@@ -7996,7 +8028,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9" s="20">
         <v>2</v>
@@ -8004,15 +8036,15 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J9" s="20">
         <v>2</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="37" t="s">
-        <v>287</v>
+      <c r="M9" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="N9" s="20">
         <v>3</v>
@@ -8022,7 +8054,7 @@
     </row>
     <row r="10" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B10" s="20">
         <v>3</v>
@@ -8030,7 +8062,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F10" s="20">
         <v>2</v>
@@ -8038,15 +8070,15 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J10" s="20">
         <v>3</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="37" t="s">
-        <v>291</v>
+      <c r="M10" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="N10" s="20">
         <v>3</v>
@@ -8056,7 +8088,7 @@
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B11" s="20">
         <v>2</v>
@@ -8064,7 +8096,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F11" s="20">
         <v>2</v>
@@ -8072,15 +8104,15 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J11" s="20">
         <v>3</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="37" t="s">
-        <v>294</v>
+      <c r="M11" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="N11" s="20">
         <v>3</v>
@@ -8090,7 +8122,7 @@
     </row>
     <row r="12" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B12" s="20">
         <v>2</v>
@@ -8098,7 +8130,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F12" s="20">
         <v>2</v>
@@ -8106,15 +8138,15 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J12" s="20">
         <v>3</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="37" t="s">
-        <v>297</v>
+      <c r="M12" s="36" t="s">
+        <v>298</v>
       </c>
       <c r="N12" s="20">
         <v>2</v>
@@ -8124,7 +8156,7 @@
     </row>
     <row r="13" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B13" s="20">
         <v>2</v>
@@ -8132,7 +8164,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="20">
         <v>2</v>
@@ -8140,15 +8172,15 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J13" s="20">
         <v>2</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="37" t="s">
-        <v>301</v>
+      <c r="M13" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="N13" s="20">
         <v>6</v>
@@ -8158,7 +8190,7 @@
     </row>
     <row r="14" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="20">
         <v>3</v>
@@ -8166,7 +8198,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="20">
         <v>3</v>
@@ -8174,15 +8206,15 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J14" s="20">
         <v>2</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="37" t="s">
-        <v>304</v>
+      <c r="M14" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="N14" s="20">
         <v>2</v>
@@ -8192,7 +8224,7 @@
     </row>
     <row r="15" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B15" s="20">
         <v>3</v>
@@ -8200,7 +8232,7 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
@@ -8208,15 +8240,15 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J15" s="20">
         <v>2</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="37" t="s">
-        <v>306</v>
+      <c r="M15" s="36" t="s">
+        <v>307</v>
       </c>
       <c r="N15" s="20">
         <v>6</v>
@@ -8226,7 +8258,7 @@
     </row>
     <row r="16" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B16" s="20">
         <v>3</v>
@@ -8234,7 +8266,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="20">
         <v>3</v>
@@ -8242,15 +8274,15 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J16" s="20">
         <v>2</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="37" t="s">
-        <v>310</v>
+      <c r="M16" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="N16" s="20">
         <v>1</v>
@@ -8260,7 +8292,7 @@
     </row>
     <row r="17" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B17" s="20">
         <v>2</v>
@@ -8268,7 +8300,7 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F17" s="20">
         <v>3</v>
@@ -8276,15 +8308,15 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J17" s="20">
         <v>3</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="37" t="s">
-        <v>313</v>
+      <c r="M17" s="36" t="s">
+        <v>314</v>
       </c>
       <c r="N17" s="20">
         <v>3</v>
@@ -8294,7 +8326,7 @@
     </row>
     <row r="18" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B18" s="20">
         <v>3</v>
@@ -8302,7 +8334,7 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F18" s="20">
         <v>3</v>
@@ -8310,15 +8342,15 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J18" s="20">
         <v>3</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="37" t="s">
-        <v>317</v>
+      <c r="M18" s="36" t="s">
+        <v>318</v>
       </c>
       <c r="N18" s="20">
         <v>3</v>
@@ -8328,7 +8360,7 @@
     </row>
     <row r="19" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B19" s="20">
         <v>3</v>
@@ -8336,7 +8368,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F19" s="20">
         <v>3</v>
@@ -8344,25 +8376,25 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J19" s="20">
         <v>3</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="37" t="s">
-        <v>321</v>
+      <c r="M19" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
     <row r="20" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B20" s="20">
         <v>3</v>
@@ -8370,7 +8402,7 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F20" s="20">
         <v>3</v>
@@ -8378,15 +8410,15 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J20" s="20">
         <v>3</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="37" t="s">
-        <v>325</v>
+      <c r="M20" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="N20" s="20">
         <v>1</v>
@@ -8396,7 +8428,7 @@
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B21" s="20">
         <v>3</v>
@@ -8404,7 +8436,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F21" s="20">
         <v>3</v>
@@ -8412,15 +8444,15 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J21" s="20">
         <v>3</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="37" t="s">
-        <v>329</v>
+      <c r="M21" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="N21" s="20">
         <v>3</v>
@@ -8430,7 +8462,7 @@
     </row>
     <row r="22" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B22" s="20">
         <v>3</v>
@@ -8438,7 +8470,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F22" s="20">
         <v>2</v>
@@ -8446,15 +8478,15 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J22" s="20">
         <v>2</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="37" t="s">
-        <v>333</v>
+      <c r="M22" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="N22" s="20">
         <v>2</v>
@@ -8464,7 +8496,7 @@
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B23" s="20">
         <v>3</v>
@@ -8472,7 +8504,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F23" s="20">
         <v>2</v>
@@ -8480,15 +8512,15 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J23" s="20">
         <v>3</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="37" t="s">
-        <v>337</v>
+      <c r="M23" s="36" t="s">
+        <v>338</v>
       </c>
       <c r="N23" s="20">
         <v>3</v>
@@ -8498,7 +8530,7 @@
     </row>
     <row r="24" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B24" s="20">
         <v>2</v>
@@ -8506,7 +8538,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F24" s="20">
         <v>1</v>
@@ -8514,15 +8546,15 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J24" s="20">
         <v>2</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="37" t="s">
-        <v>340</v>
+      <c r="M24" s="36" t="s">
+        <v>341</v>
       </c>
       <c r="N24" s="20">
         <v>2</v>
@@ -8532,7 +8564,7 @@
     </row>
     <row r="25" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B25" s="20">
         <v>3</v>
@@ -8540,7 +8572,7 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F25" s="20">
         <v>3</v>
@@ -8548,15 +8580,15 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J25" s="20">
         <v>2</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="37" t="s">
-        <v>342</v>
+      <c r="M25" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="N25" s="20">
         <v>1</v>
@@ -8566,7 +8598,7 @@
     </row>
     <row r="26" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B26" s="20">
         <v>3</v>
@@ -8574,7 +8606,7 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F26" s="20">
         <v>3</v>
@@ -8582,15 +8614,15 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J26" s="20">
         <v>3</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="37" t="s">
-        <v>346</v>
+      <c r="M26" s="36" t="s">
+        <v>347</v>
       </c>
       <c r="N26" s="20">
         <v>3</v>
@@ -8600,7 +8632,7 @@
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B27" s="20">
         <v>2</v>
@@ -8608,7 +8640,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F27" s="20">
         <v>2</v>
@@ -8616,15 +8648,15 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J27" s="20">
         <v>2</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="37" t="s">
-        <v>348</v>
+      <c r="M27" s="36" t="s">
+        <v>349</v>
       </c>
       <c r="N27" s="20">
         <v>1</v>
@@ -8634,7 +8666,7 @@
     </row>
     <row r="28" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B28" s="20">
         <v>3</v>
@@ -8642,7 +8674,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F28" s="20">
         <v>2</v>
@@ -8650,15 +8682,15 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J28" s="20">
         <v>3</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="37" t="s">
-        <v>351</v>
+      <c r="M28" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="N28" s="20">
         <v>1</v>
@@ -8668,7 +8700,7 @@
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B29" s="20">
         <v>3</v>
@@ -8676,7 +8708,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F29" s="20">
         <v>2</v>
@@ -8684,15 +8716,15 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J29" s="20">
         <v>3</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="37" t="s">
-        <v>355</v>
+      <c r="M29" s="36" t="s">
+        <v>356</v>
       </c>
       <c r="N29" s="20">
         <v>1</v>
@@ -8702,7 +8734,7 @@
     </row>
     <row r="30" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B30" s="20">
         <v>3</v>
@@ -8710,7 +8742,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F30" s="20">
         <v>3</v>
@@ -8718,15 +8750,15 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J30" s="20">
         <v>3</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="37" t="s">
-        <v>359</v>
+      <c r="M30" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="N30" s="20">
         <v>3</v>
@@ -8734,17 +8766,17 @@
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
     </row>
-    <row r="31" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B31" s="20">
         <v>3</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F31" s="20">
         <v>2</v>
@@ -8752,15 +8784,15 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J31" s="20">
         <v>3</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="37" t="s">
-        <v>362</v>
+      <c r="M31" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="N31" s="20">
         <v>3</v>
@@ -8770,15 +8802,15 @@
     </row>
     <row r="32" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B32" s="20">
         <v>3</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F32" s="20">
         <v>2</v>
@@ -8786,15 +8818,15 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J32" s="20">
         <v>2</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="37" t="s">
-        <v>511</v>
+      <c r="M32" s="36" t="s">
+        <v>513</v>
       </c>
       <c r="N32" s="20">
         <v>3</v>
@@ -8804,31 +8836,31 @@
     </row>
     <row r="33" spans="1:16" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A33" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B33" s="20">
         <v>2</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="20" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F33" s="20">
         <v>3</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="80" t="s">
-        <v>535</v>
-      </c>
-      <c r="J33" s="80">
-        <v>3</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="37" t="s">
-        <v>364</v>
+      <c r="I33" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="J33" s="62">
+        <v>3</v>
+      </c>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="N33" s="20">
         <v>3</v>
@@ -8838,162 +8870,162 @@
     </row>
     <row r="34" spans="1:16" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B34" s="20">
         <v>2</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F34" s="20">
         <v>2</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="80" t="s">
-        <v>536</v>
-      </c>
-      <c r="J34" s="80">
-        <v>2</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="N34" s="60">
-        <v>3</v>
-      </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-    </row>
-    <row r="35" spans="1:16" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="I34" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="J34" s="62">
+        <v>2</v>
+      </c>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="N34" s="59">
+        <v>3</v>
+      </c>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+    </row>
+    <row r="35" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A35" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B35" s="20">
         <v>1</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F35" s="20">
         <v>3</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="80" t="s">
-        <v>537</v>
-      </c>
-      <c r="J35" s="80">
-        <v>3</v>
-      </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="87" t="s">
-        <v>565</v>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="62" t="s">
+        <v>538</v>
+      </c>
+      <c r="J35" s="62">
+        <v>3</v>
+      </c>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="36" t="s">
+        <v>484</v>
       </c>
       <c r="N35" s="20">
         <v>2</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
     </row>
     <row r="36" spans="1:16" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A36" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B36" s="20">
         <v>1</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F36" s="20">
         <v>3</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="J36" s="80">
-        <v>3</v>
-      </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="37" t="s">
-        <v>483</v>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="J36" s="62">
+        <v>3</v>
+      </c>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="36" t="s">
+        <v>485</v>
       </c>
       <c r="N36" s="20">
         <v>3</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
     </row>
     <row r="37" spans="1:16" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B37" s="20">
         <v>3</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F37" s="20">
         <v>2</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="80" t="s">
-        <v>544</v>
-      </c>
-      <c r="J37" s="80">
-        <v>2</v>
-      </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="37" t="s">
-        <v>484</v>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="J37" s="62">
+        <v>2</v>
+      </c>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="36" t="s">
+        <v>486</v>
       </c>
       <c r="N37" s="20">
         <v>3</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+    </row>
+    <row r="38" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B38" s="20">
         <v>2</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F38" s="20">
         <v>2</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="19" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>2</v>
@@ -9001,240 +9033,300 @@
       <c r="L38" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="80" t="s">
-        <v>545</v>
-      </c>
-      <c r="N38" s="77">
+      <c r="M38" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="N38" s="25">
         <v>2</v>
       </c>
       <c r="O38" s="76"/>
       <c r="P38" s="76"/>
     </row>
-    <row r="39" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A39" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B39" s="20">
         <v>2</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F39" s="20">
         <v>3</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J39" s="20">
         <v>3</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="N39" s="77">
+      <c r="M39" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="N39" s="25">
         <v>2</v>
       </c>
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
     </row>
-    <row r="40" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="77">
-        <v>2</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="F40" s="20">
-        <v>3</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+    <row r="40" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A40" s="62" t="s">
+        <v>540</v>
+      </c>
+      <c r="B40" s="25">
+        <v>2</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J40" s="20">
         <v>3</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
-      <c r="M40" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="N40" s="77">
+      <c r="M40" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="N40" s="25">
         <v>2</v>
       </c>
       <c r="O40" s="76"/>
       <c r="P40" s="76"/>
     </row>
-    <row r="41" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="B41" s="77">
-        <v>2</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="F41" s="20">
-        <v>2</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+    <row r="41" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A41" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" s="25">
+        <v>2</v>
+      </c>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F41" s="25">
+        <v>2</v>
+      </c>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J41" s="20">
         <v>3</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="1:16" ht="51.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="78" t="s">
-        <v>534</v>
-      </c>
-      <c r="B42" s="77">
-        <v>2</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F42" s="20">
-        <v>2</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="M41" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="N41" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="51.6" x14ac:dyDescent="0.5">
+      <c r="A42" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="B42" s="25">
+        <v>2</v>
+      </c>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="F42" s="25">
+        <v>2</v>
+      </c>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J42" s="20">
         <v>2</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="78" t="s">
-        <v>541</v>
-      </c>
-      <c r="B43" s="77">
-        <v>3</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="F43" s="20">
-        <v>2</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+      <c r="M42" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="N42" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A43" s="62" t="s">
+        <v>542</v>
+      </c>
+      <c r="B43" s="25">
+        <v>3</v>
+      </c>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="F43" s="25">
+        <v>2</v>
+      </c>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J43" s="20">
         <v>3</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="78" t="s">
-        <v>542</v>
-      </c>
-      <c r="B44" s="77">
-        <v>3</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="76" t="s">
+      <c r="M43" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="N43" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A44" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="F44" s="77">
-        <v>2</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="B44" s="25">
+        <v>3</v>
+      </c>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="F44" s="25">
+        <v>2</v>
+      </c>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J44" s="20">
         <v>3</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M44" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="N44" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E45" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="F45" s="81">
+        <v>2</v>
+      </c>
       <c r="I45" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J45" s="20">
         <v>3</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M45" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="N45" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="I46" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J46" s="20">
         <v>3</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M46" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="N46" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="I47" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J47" s="20">
         <v>1</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M47" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="N47" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="I48" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J48" s="20">
         <v>3</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M48" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="N48" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="I49" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J49" s="20">
         <v>3</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="M49" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="N49" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I50" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J50" s="20">
         <v>3</v>
@@ -9242,9 +9334,9 @@
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
     </row>
-    <row r="51" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I51" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J51" s="20">
         <v>3</v>
@@ -9252,9 +9344,9 @@
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
     </row>
-    <row r="52" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I52" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J52" s="20">
         <v>1</v>
@@ -9262,9 +9354,9 @@
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="9:12" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:14" ht="51.6" x14ac:dyDescent="0.3">
       <c r="I53" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J53" s="20">
         <v>3</v>
@@ -9272,9 +9364,9 @@
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
     </row>
-    <row r="54" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I54" s="20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J54" s="20">
         <v>3</v>

--- a/media/Excel/109_data.xlsx
+++ b/media/Excel/109_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30BE86-4953-405E-9D06-E8AF27A097A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD01FA-69D1-4BEA-B750-AC0F7EA25C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必修" sheetId="1" r:id="rId1"/>
@@ -14,19 +14,10 @@
     <sheet name="通識(人文&amp;社會)" sheetId="4" r:id="rId4"/>
     <sheet name="通識(自然&amp;特色)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -602,9 +593,6 @@
   </si>
   <si>
     <t>創客與社區營造</t>
-  </si>
-  <si>
-    <t>Python 程式設計</t>
   </si>
   <si>
     <t>程式與教育服務</t>
@@ -2705,6 +2693,10 @@
   </si>
   <si>
     <t>資管系服務學習(下)</t>
+  </si>
+  <si>
+    <t>Python程式設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3463,7 +3455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4116,6 +4108,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4128,23 +4138,17 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4152,18 +4156,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4190,12 +4182,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4483,7 +4469,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4505,7 +4491,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="209" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1" s="210"/>
       <c r="C1" s="210"/>
@@ -4730,7 +4716,7 @@
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>0</v>
@@ -4746,7 +4732,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>4</v>
@@ -4902,8 +4888,8 @@
       <c r="A23" s="56">
         <v>985135</v>
       </c>
-      <c r="B23" s="251" t="s">
-        <v>709</v>
+      <c r="B23" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="C23" s="10">
         <v>0.5</v>
@@ -4929,8 +4915,8 @@
       <c r="A24" s="56">
         <v>985136</v>
       </c>
-      <c r="B24" s="252" t="s">
-        <v>710</v>
+      <c r="B24" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="C24" s="10">
         <v>0.5</v>
@@ -4971,7 +4957,7 @@
     </row>
     <row r="26" spans="1:13" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>18</v>
@@ -5067,10 +5053,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="11" customFormat="1" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>1</v>
@@ -5082,10 +5068,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>1</v>
@@ -5097,10 +5083,10 @@
         <v>21</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L1" s="105" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M1" s="96" t="s">
         <v>1</v>
@@ -5114,7 +5100,7 @@
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
@@ -5128,7 +5114,7 @@
         <v>130070</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H2" s="21">
         <v>3</v>
@@ -5139,7 +5125,7 @@
         <v>130070</v>
       </c>
       <c r="L2" s="94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M2" s="99">
         <v>3</v>
@@ -5149,7 +5135,7 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>26</v>
@@ -5174,7 +5160,7 @@
         <v>130071</v>
       </c>
       <c r="L3" s="94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M3" s="99">
         <v>3</v>
@@ -5187,7 +5173,7 @@
         <v>130063</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
@@ -5257,7 +5243,7 @@
         <v>130066</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="75">
         <v>3</v>
@@ -5268,7 +5254,7 @@
         <v>130089</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6" s="21">
         <v>3</v>
@@ -5289,10 +5275,10 @@
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>1</v>
@@ -5331,7 +5317,7 @@
         <v>130065</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="21">
         <v>3</v>
@@ -5401,7 +5387,7 @@
         <v>130008</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -5423,7 +5409,7 @@
         <v>130061</v>
       </c>
       <c r="L10" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M10" s="99">
         <v>3</v>
@@ -5447,7 +5433,7 @@
         <v>130094</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H11" s="21">
         <v>3</v>
@@ -5482,20 +5468,20 @@
         <v>130091</v>
       </c>
       <c r="G12" s="92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H12" s="89">
         <v>3</v>
       </c>
-      <c r="I12" s="234" t="s">
-        <v>677</v>
-      </c>
-      <c r="J12" s="235"/>
+      <c r="I12" s="226" t="s">
+        <v>676</v>
+      </c>
+      <c r="J12" s="227"/>
       <c r="K12" s="71">
         <v>130089</v>
       </c>
       <c r="L12" s="95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M12" s="99">
         <v>3</v>
@@ -5519,28 +5505,28 @@
         <v>130098</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H13" s="87">
         <v>3</v>
       </c>
-      <c r="I13" s="234" t="s">
-        <v>677</v>
-      </c>
-      <c r="J13" s="235"/>
+      <c r="I13" s="226" t="s">
+        <v>676</v>
+      </c>
+      <c r="J13" s="227"/>
       <c r="K13" s="109">
         <v>130099</v>
       </c>
       <c r="L13" s="110" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M13" s="111">
         <v>3</v>
       </c>
-      <c r="N13" s="228" t="s">
-        <v>677</v>
-      </c>
-      <c r="O13" s="229"/>
+      <c r="N13" s="234" t="s">
+        <v>676</v>
+      </c>
+      <c r="O13" s="235"/>
     </row>
     <row r="14" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
@@ -5558,15 +5544,15 @@
         <v>130049</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H14" s="87">
         <v>3</v>
       </c>
-      <c r="I14" s="234" t="s">
-        <v>677</v>
-      </c>
-      <c r="J14" s="235"/>
+      <c r="I14" s="226" t="s">
+        <v>676</v>
+      </c>
+      <c r="J14" s="227"/>
       <c r="K14" s="109">
         <v>130100</v>
       </c>
@@ -5576,10 +5562,10 @@
       <c r="M14" s="111">
         <v>3</v>
       </c>
-      <c r="N14" s="228" t="s">
-        <v>677</v>
-      </c>
-      <c r="O14" s="229"/>
+      <c r="N14" s="234" t="s">
+        <v>676</v>
+      </c>
+      <c r="O14" s="235"/>
     </row>
     <row r="15" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
@@ -5602,10 +5588,10 @@
       <c r="H15" s="84">
         <v>3</v>
       </c>
-      <c r="I15" s="230" t="s">
-        <v>675</v>
-      </c>
-      <c r="J15" s="231"/>
+      <c r="I15" s="228" t="s">
+        <v>674</v>
+      </c>
+      <c r="J15" s="229"/>
       <c r="K15" s="109">
         <v>130101</v>
       </c>
@@ -5615,10 +5601,10 @@
       <c r="M15" s="111">
         <v>3</v>
       </c>
-      <c r="N15" s="228" t="s">
-        <v>677</v>
-      </c>
-      <c r="O15" s="229"/>
+      <c r="N15" s="234" t="s">
+        <v>676</v>
+      </c>
+      <c r="O15" s="235"/>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
@@ -5641,23 +5627,23 @@
       <c r="H16" s="84">
         <v>3</v>
       </c>
-      <c r="I16" s="230" t="s">
-        <v>675</v>
-      </c>
-      <c r="J16" s="231"/>
+      <c r="I16" s="228" t="s">
+        <v>674</v>
+      </c>
+      <c r="J16" s="229"/>
       <c r="K16" s="109">
         <v>130102</v>
       </c>
       <c r="L16" s="110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M16" s="111">
         <v>3</v>
       </c>
-      <c r="N16" s="228" t="s">
-        <v>677</v>
-      </c>
-      <c r="O16" s="229"/>
+      <c r="N16" s="234" t="s">
+        <v>676</v>
+      </c>
+      <c r="O16" s="235"/>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="72">
@@ -5680,23 +5666,23 @@
       <c r="H17" s="113">
         <v>3</v>
       </c>
-      <c r="I17" s="232" t="s">
-        <v>676</v>
-      </c>
-      <c r="J17" s="233"/>
+      <c r="I17" s="230" t="s">
+        <v>675</v>
+      </c>
+      <c r="J17" s="231"/>
       <c r="K17" s="106">
         <v>135086</v>
       </c>
       <c r="L17" s="107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M17" s="108">
         <v>3</v>
       </c>
-      <c r="N17" s="226" t="s">
-        <v>675</v>
-      </c>
-      <c r="O17" s="227"/>
+      <c r="N17" s="232" t="s">
+        <v>674</v>
+      </c>
+      <c r="O17" s="233"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
@@ -5842,17 +5828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5890,10 +5876,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="191" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="190" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>1</v>
@@ -5905,10 +5891,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G1" s="190" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1" s="67" t="s">
         <v>1</v>
@@ -5930,10 +5916,10 @@
       <c r="C2" s="104">
         <v>1</v>
       </c>
-      <c r="D2" s="238" t="s">
-        <v>678</v>
-      </c>
-      <c r="E2" s="238"/>
+      <c r="D2" s="237" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="237"/>
       <c r="F2" s="192">
         <v>135117</v>
       </c>
@@ -5944,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="239" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J2" s="239"/>
       <c r="K2" s="195"/>
@@ -5959,10 +5945,10 @@
       <c r="C3" s="104">
         <v>1</v>
       </c>
-      <c r="D3" s="238" t="s">
-        <v>678</v>
-      </c>
-      <c r="E3" s="238"/>
+      <c r="D3" s="237" t="s">
+        <v>677</v>
+      </c>
+      <c r="E3" s="237"/>
       <c r="F3" s="192">
         <v>130103</v>
       </c>
@@ -5994,7 +5980,7 @@
         <v>130085</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" s="99">
         <v>3</v>
@@ -6021,7 +6007,7 @@
         <v>130086</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" s="99">
         <v>3</v>
@@ -6034,7 +6020,7 @@
     </row>
     <row r="6" spans="1:13" s="191" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>60</v>
@@ -6048,7 +6034,7 @@
         <v>130095</v>
       </c>
       <c r="G6" s="196" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H6" s="197">
         <v>3</v>
@@ -6062,7 +6048,7 @@
         <v>130087</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="99">
         <v>3</v>
@@ -6073,15 +6059,15 @@
         <v>135130</v>
       </c>
       <c r="G7" s="103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="104">
         <v>3</v>
       </c>
-      <c r="I7" s="238" t="s">
-        <v>680</v>
-      </c>
-      <c r="J7" s="238"/>
+      <c r="I7" s="237" t="s">
+        <v>679</v>
+      </c>
+      <c r="J7" s="237"/>
       <c r="K7" s="195"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
@@ -6091,7 +6077,7 @@
         <v>130053</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="99">
         <v>3</v>
@@ -6102,13 +6088,13 @@
         <v>135131</v>
       </c>
       <c r="G8" s="193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="194">
         <v>3</v>
       </c>
       <c r="I8" s="239" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J8" s="239"/>
       <c r="K8" s="195"/>
@@ -6120,7 +6106,7 @@
         <v>130090</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="99">
         <v>1</v>
@@ -6131,7 +6117,7 @@
         <v>130104</v>
       </c>
       <c r="G9" s="193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="194">
         <v>3</v>
@@ -6158,15 +6144,15 @@
         <v>135132</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H10" s="89">
         <v>3</v>
       </c>
-      <c r="I10" s="240" t="s">
-        <v>688</v>
-      </c>
-      <c r="J10" s="240"/>
+      <c r="I10" s="238" t="s">
+        <v>687</v>
+      </c>
+      <c r="J10" s="238"/>
       <c r="K10" s="195"/>
       <c r="L10" s="198"/>
       <c r="M10" s="23"/>
@@ -6176,26 +6162,26 @@
         <v>135001</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="104">
         <v>3</v>
       </c>
-      <c r="D11" s="238" t="s">
-        <v>679</v>
-      </c>
-      <c r="E11" s="238"/>
+      <c r="D11" s="237" t="s">
+        <v>678</v>
+      </c>
+      <c r="E11" s="237"/>
       <c r="F11" s="192">
         <v>135133</v>
       </c>
       <c r="G11" s="193" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H11" s="194">
         <v>3</v>
       </c>
       <c r="I11" s="239" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J11" s="239"/>
       <c r="K11" s="195"/>
@@ -6207,20 +6193,20 @@
         <v>210048</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="104">
         <v>3</v>
       </c>
-      <c r="D12" s="238" t="s">
-        <v>680</v>
-      </c>
-      <c r="E12" s="238"/>
+      <c r="D12" s="237" t="s">
+        <v>679</v>
+      </c>
+      <c r="E12" s="237"/>
       <c r="F12" s="192">
         <v>130105</v>
       </c>
       <c r="G12" s="193" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H12" s="194">
         <v>3</v>
@@ -6236,20 +6222,20 @@
         <v>135071</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="89">
         <v>3</v>
       </c>
-      <c r="D13" s="240" t="s">
-        <v>681</v>
-      </c>
-      <c r="E13" s="240"/>
+      <c r="D13" s="238" t="s">
+        <v>680</v>
+      </c>
+      <c r="E13" s="238"/>
       <c r="F13" s="47">
         <v>510001</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H13" s="99">
         <v>1</v>
@@ -6270,15 +6256,15 @@
       <c r="C14" s="111">
         <v>3</v>
       </c>
-      <c r="D14" s="241" t="s">
-        <v>683</v>
-      </c>
-      <c r="E14" s="241"/>
+      <c r="D14" s="236" t="s">
+        <v>682</v>
+      </c>
+      <c r="E14" s="236"/>
       <c r="F14" s="47">
         <v>510002</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H14" s="99">
         <v>1</v>
@@ -6299,15 +6285,15 @@
       <c r="C15" s="111">
         <v>3</v>
       </c>
-      <c r="D15" s="241" t="s">
-        <v>682</v>
-      </c>
-      <c r="E15" s="241"/>
+      <c r="D15" s="236" t="s">
+        <v>681</v>
+      </c>
+      <c r="E15" s="236"/>
       <c r="F15" s="47">
         <v>130092</v>
       </c>
       <c r="G15" s="95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H15" s="99">
         <v>3</v>
@@ -6328,15 +6314,15 @@
       <c r="C16" s="104">
         <v>3</v>
       </c>
-      <c r="D16" s="238" t="s">
-        <v>684</v>
-      </c>
-      <c r="E16" s="238"/>
+      <c r="D16" s="237" t="s">
+        <v>683</v>
+      </c>
+      <c r="E16" s="237"/>
       <c r="F16" s="114">
         <v>130093</v>
       </c>
       <c r="G16" s="196" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H16" s="197">
         <v>3</v>
@@ -6357,15 +6343,15 @@
       <c r="C17" s="104">
         <v>3</v>
       </c>
-      <c r="D17" s="238" t="s">
-        <v>684</v>
-      </c>
-      <c r="E17" s="238"/>
+      <c r="D17" s="237" t="s">
+        <v>683</v>
+      </c>
+      <c r="E17" s="237"/>
       <c r="F17" s="114">
         <v>130106</v>
       </c>
       <c r="G17" s="196" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H17" s="197">
         <v>3</v>
@@ -6392,7 +6378,7 @@
         <v>130096</v>
       </c>
       <c r="G18" s="196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H18" s="197">
         <v>3</v>
@@ -6419,7 +6405,7 @@
         <v>130108</v>
       </c>
       <c r="G19" s="196" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H19" s="197">
         <v>3</v>
@@ -6440,10 +6426,10 @@
       <c r="C20" s="104">
         <v>3</v>
       </c>
-      <c r="D20" s="238" t="s">
-        <v>680</v>
-      </c>
-      <c r="E20" s="238"/>
+      <c r="D20" s="237" t="s">
+        <v>679</v>
+      </c>
+      <c r="E20" s="237"/>
       <c r="F20" s="83">
         <v>130094</v>
       </c>
@@ -6453,10 +6439,10 @@
       <c r="H20" s="104">
         <v>3</v>
       </c>
-      <c r="I20" s="236" t="s">
-        <v>680</v>
-      </c>
-      <c r="J20" s="237"/>
+      <c r="I20" s="240" t="s">
+        <v>679</v>
+      </c>
+      <c r="J20" s="241"/>
       <c r="K20" s="195"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -6471,10 +6457,10 @@
       <c r="C21" s="104">
         <v>3</v>
       </c>
-      <c r="D21" s="238" t="s">
-        <v>684</v>
-      </c>
-      <c r="E21" s="238"/>
+      <c r="D21" s="237" t="s">
+        <v>683</v>
+      </c>
+      <c r="E21" s="237"/>
       <c r="F21" s="83">
         <v>210013</v>
       </c>
@@ -6484,10 +6470,10 @@
       <c r="H21" s="104">
         <v>3</v>
       </c>
-      <c r="I21" s="236" t="s">
-        <v>692</v>
-      </c>
-      <c r="J21" s="237"/>
+      <c r="I21" s="240" t="s">
+        <v>691</v>
+      </c>
+      <c r="J21" s="241"/>
       <c r="K21" s="195"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -6502,10 +6488,10 @@
       <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="238" t="s">
-        <v>685</v>
-      </c>
-      <c r="E22" s="238"/>
+      <c r="D22" s="237" t="s">
+        <v>684</v>
+      </c>
+      <c r="E22" s="237"/>
       <c r="F22" s="200"/>
       <c r="G22" s="77"/>
       <c r="H22" s="201"/>
@@ -6525,10 +6511,10 @@
       <c r="C23" s="104">
         <v>3</v>
       </c>
-      <c r="D23" s="238" t="s">
-        <v>684</v>
-      </c>
-      <c r="E23" s="238"/>
+      <c r="D23" s="237" t="s">
+        <v>683</v>
+      </c>
+      <c r="E23" s="237"/>
       <c r="F23" s="202"/>
       <c r="G23" s="203"/>
       <c r="H23" s="204"/>
@@ -6623,6 +6609,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -6633,16 +6629,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6680,7 +6666,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="126" t="s">
         <v>66</v>
@@ -6695,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G1" s="126" t="s">
         <v>67</v>
@@ -6710,7 +6696,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L1" s="126" t="s">
         <v>68</v>
@@ -6725,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="P1" s="125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q1" s="126" t="s">
         <v>69</v>
@@ -6745,7 +6731,7 @@
         <v>385010</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" s="18">
         <v>3</v>
@@ -6753,10 +6739,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="130"/>
       <c r="F2" s="138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2" s="19">
         <v>3</v>
@@ -6767,7 +6753,7 @@
         <v>984003</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="18">
         <v>2</v>
@@ -6778,7 +6764,7 @@
         <v>992033</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R2" s="18">
         <v>2</v>
@@ -6791,7 +6777,7 @@
         <v>991008</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -6799,10 +6785,10 @@
       <c r="D3" s="18"/>
       <c r="E3" s="130"/>
       <c r="F3" s="138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -6813,7 +6799,7 @@
         <v>992078</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M3" s="18">
         <v>2</v>
@@ -6837,7 +6823,7 @@
         <v>991030</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
@@ -6848,7 +6834,7 @@
         <v>991071</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -6859,7 +6845,7 @@
         <v>992101</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M4" s="18">
         <v>3</v>
@@ -6870,7 +6856,7 @@
         <v>992043</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R4" s="18">
         <v>2</v>
@@ -6883,7 +6869,7 @@
         <v>991031</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
@@ -6905,7 +6891,7 @@
         <v>992102</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M5" s="18">
         <v>3</v>
@@ -6916,7 +6902,7 @@
         <v>992062</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R5" s="19">
         <v>2</v>
@@ -6951,7 +6937,7 @@
         <v>992114</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M6" s="18">
         <v>3</v>
@@ -6962,7 +6948,7 @@
         <v>992105</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R6" s="18">
         <v>3</v>
@@ -6986,7 +6972,7 @@
         <v>991085</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H7" s="19">
         <v>3</v>
@@ -6997,7 +6983,7 @@
         <v>992131</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M7" s="18">
         <v>2</v>
@@ -7008,7 +6994,7 @@
         <v>992116</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R7" s="18">
         <v>3</v>
@@ -7032,7 +7018,7 @@
         <v>991104</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H8" s="19">
         <v>2</v>
@@ -7043,7 +7029,7 @@
         <v>992156</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M8" s="18">
         <v>2</v>
@@ -7054,7 +7040,7 @@
         <v>992122</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R8" s="18">
         <v>3</v>
@@ -7067,7 +7053,7 @@
         <v>991070</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
@@ -7078,7 +7064,7 @@
         <v>991140</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
@@ -7089,7 +7075,7 @@
         <v>992175</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M9" s="18">
         <v>2</v>
@@ -7146,7 +7132,7 @@
         <v>992125</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R10" s="18">
         <v>2</v>
@@ -7170,7 +7156,7 @@
         <v>992051</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H11" s="19">
         <v>2</v>
@@ -7192,7 +7178,7 @@
         <v>992208</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R11" s="18">
         <v>3</v>
@@ -7216,7 +7202,7 @@
         <v>992073</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H12" s="19">
         <v>2</v>
@@ -7238,7 +7224,7 @@
         <v>992135</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R12" s="18">
         <v>2</v>
@@ -7251,7 +7237,7 @@
         <v>991143</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="18">
         <v>2</v>
@@ -7270,10 +7256,10 @@
       <c r="I13" s="18"/>
       <c r="J13" s="130"/>
       <c r="K13" s="145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M13" s="18">
         <v>2</v>
@@ -7284,7 +7270,7 @@
         <v>992139</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R13" s="18">
         <v>2</v>
@@ -7319,7 +7305,7 @@
         <v>992108</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M14" s="18">
         <v>2</v>
@@ -7330,7 +7316,7 @@
         <v>992143</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R14" s="18">
         <v>2</v>
@@ -7354,7 +7340,7 @@
         <v>992154</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H15" s="19">
         <v>2</v>
@@ -7365,7 +7351,7 @@
         <v>992076</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M15" s="18">
         <v>2</v>
@@ -7386,10 +7372,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="129" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C16" s="18">
         <v>2</v>
@@ -7400,7 +7386,7 @@
         <v>992171</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H16" s="19">
         <v>2</v>
@@ -7411,7 +7397,7 @@
         <v>992094</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M16" s="18">
         <v>3</v>
@@ -7422,7 +7408,7 @@
         <v>994041</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R16" s="18">
         <v>3</v>
@@ -7432,10 +7418,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A17" s="129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="18">
         <v>3</v>
@@ -7446,7 +7432,7 @@
         <v>991087</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H17" s="19">
         <v>2</v>
@@ -7457,7 +7443,7 @@
         <v>992112</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M17" s="18">
         <v>3</v>
@@ -7468,7 +7454,7 @@
         <v>992120</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R17" s="18">
         <v>2</v>
@@ -7481,7 +7467,7 @@
         <v>991024</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="18">
         <v>2</v>
@@ -7492,7 +7478,7 @@
         <v>991125</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" s="19">
         <v>2</v>
@@ -7503,7 +7489,7 @@
         <v>992185</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M18" s="18">
         <v>1</v>
@@ -7514,7 +7500,7 @@
         <v>992129</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R18" s="18">
         <v>2</v>
@@ -7538,7 +7524,7 @@
         <v>991154</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H19" s="19">
         <v>1</v>
@@ -7549,7 +7535,7 @@
         <v>992187</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M19" s="18">
         <v>2</v>
@@ -7560,7 +7546,7 @@
         <v>992141</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R19" s="18">
         <v>3</v>
@@ -7584,7 +7570,7 @@
         <v>994044</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H20" s="19">
         <v>3</v>
@@ -7606,7 +7592,7 @@
         <v>992151</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R20" s="18">
         <v>3</v>
@@ -7619,7 +7605,7 @@
         <v>993094</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21" s="18">
         <v>2</v>
@@ -7630,7 +7616,7 @@
         <v>991163</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="19">
         <v>3</v>
@@ -7641,7 +7627,7 @@
         <v>994025</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M21" s="18">
         <v>2</v>
@@ -7652,7 +7638,7 @@
         <v>992177</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R21" s="18">
         <v>3</v>
@@ -7665,7 +7651,7 @@
         <v>991151</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" s="18">
         <v>2</v>
@@ -7676,7 +7662,7 @@
         <v>991101</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H22" s="19">
         <v>2</v>
@@ -7687,7 +7673,7 @@
         <v>585007</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M22" s="18">
         <v>3</v>
@@ -7698,7 +7684,7 @@
         <v>992191</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R22" s="18">
         <v>3</v>
@@ -7711,7 +7697,7 @@
         <v>991156</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C23" s="18">
         <v>3</v>
@@ -7722,7 +7708,7 @@
         <v>991157</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H23" s="19">
         <v>3</v>
@@ -7733,7 +7719,7 @@
         <v>992195</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M23" s="18">
         <v>3</v>
@@ -7757,7 +7743,7 @@
         <v>991161</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C24" s="18">
         <v>2</v>
@@ -7768,7 +7754,7 @@
         <v>991158</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H24" s="19">
         <v>3</v>
@@ -7779,7 +7765,7 @@
         <v>992196</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M24" s="18">
         <v>2</v>
@@ -7790,7 +7776,7 @@
         <v>992193</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R24" s="18">
         <v>1</v>
@@ -7803,7 +7789,7 @@
         <v>991120</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C25" s="18">
         <v>2</v>
@@ -7825,7 +7811,7 @@
         <v>992186</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M25" s="18">
         <v>3</v>
@@ -7836,7 +7822,7 @@
         <v>991094</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R25" s="18">
         <v>2</v>
@@ -7849,7 +7835,7 @@
         <v>991160</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C26" s="18">
         <v>2</v>
@@ -7868,10 +7854,10 @@
       <c r="I26" s="18"/>
       <c r="J26" s="130"/>
       <c r="K26" s="145" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M26" s="18">
         <v>3</v>
@@ -7882,7 +7868,7 @@
         <v>992194</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R26" s="18">
         <v>3</v>
@@ -7906,7 +7892,7 @@
         <v>991084</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H27" s="19">
         <v>2</v>
@@ -7917,7 +7903,7 @@
         <v>930133</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M27" s="18">
         <v>2</v>
@@ -7928,7 +7914,7 @@
         <v>992117</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R27" s="18">
         <v>3</v>
@@ -7941,7 +7927,7 @@
         <v>991083</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C28" s="18">
         <v>2</v>
@@ -7952,7 +7938,7 @@
         <v>991165</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H28" s="19">
         <v>3</v>
@@ -7963,7 +7949,7 @@
         <v>992109</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M28" s="18">
         <v>2</v>
@@ -7974,7 +7960,7 @@
         <v>992118</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R28" s="18">
         <v>3</v>
@@ -7987,7 +7973,7 @@
         <v>991148</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C29" s="18">
         <v>2</v>
@@ -7998,7 +7984,7 @@
         <v>991068</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H29" s="19">
         <v>3</v>
@@ -8009,7 +7995,7 @@
         <v>992206</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M29" s="18">
         <v>2</v>
@@ -8020,7 +8006,7 @@
         <v>992136</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R29" s="18">
         <v>2</v>
@@ -8044,7 +8030,7 @@
         <v>991174</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H30" s="19">
         <v>3</v>
@@ -8055,7 +8041,7 @@
         <v>992007</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M30" s="18">
         <v>2</v>
@@ -8066,7 +8052,7 @@
         <v>992197</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R30" s="18">
         <v>3</v>
@@ -8079,7 +8065,7 @@
         <v>991166</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C31" s="18">
         <v>3</v>
@@ -8101,7 +8087,7 @@
         <v>992061</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M31" s="18">
         <v>2</v>
@@ -8125,7 +8111,7 @@
         <v>991167</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="18">
         <v>3</v>
@@ -8147,7 +8133,7 @@
         <v>992211</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M32" s="18">
         <v>2</v>
@@ -8158,7 +8144,7 @@
         <v>992203</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R32" s="18">
         <v>3</v>
@@ -8171,7 +8157,7 @@
         <v>991168</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C33" s="18">
         <v>3</v>
@@ -8193,7 +8179,7 @@
         <v>992218</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M33" s="18">
         <v>3</v>
@@ -8204,7 +8190,7 @@
         <v>992153</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R33" s="18">
         <v>2</v>
@@ -8217,7 +8203,7 @@
         <v>991169</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C34" s="18">
         <v>3</v>
@@ -8239,7 +8225,7 @@
         <v>992100</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M34" s="18">
         <v>3</v>
@@ -8250,7 +8236,7 @@
         <v>992205</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R34" s="18">
         <v>3</v>
@@ -8285,7 +8271,7 @@
         <v>992219</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M35" s="18">
         <v>3</v>
@@ -8296,7 +8282,7 @@
         <v>992209</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R35" s="18">
         <v>3</v>
@@ -8320,7 +8306,7 @@
         <v>991184</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="19">
         <v>2</v>
@@ -8331,7 +8317,7 @@
         <v>992221</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M36" s="18">
         <v>3</v>
@@ -8342,7 +8328,7 @@
         <v>992212</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R36" s="18">
         <v>2</v>
@@ -8355,7 +8341,7 @@
         <v>991171</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" s="18">
         <v>3</v>
@@ -8366,7 +8352,7 @@
         <v>991192</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H37" s="19">
         <v>3</v>
@@ -8377,7 +8363,7 @@
         <v>992224</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M37" s="18">
         <v>2</v>
@@ -8412,7 +8398,7 @@
         <v>991195</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H38" s="19">
         <v>3</v>
@@ -8423,7 +8409,7 @@
         <v>992228</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M38" s="18">
         <v>2</v>
@@ -8434,7 +8420,7 @@
         <v>992207</v>
       </c>
       <c r="Q38" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R38" s="18">
         <v>3</v>
@@ -8458,7 +8444,7 @@
         <v>991196</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H39" s="19">
         <v>3</v>
@@ -8469,7 +8455,7 @@
         <v>992227</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M39" s="18">
         <v>3</v>
@@ -8480,7 +8466,7 @@
         <v>992210</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R39" s="18">
         <v>3</v>
@@ -8504,7 +8490,7 @@
         <v>991197</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H40" s="19">
         <v>2</v>
@@ -8515,7 +8501,7 @@
         <v>992231</v>
       </c>
       <c r="L40" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M40" s="33">
         <v>2</v>
@@ -8526,7 +8512,7 @@
         <v>992214</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R40" s="18">
         <v>2</v>
@@ -8539,7 +8525,7 @@
         <v>991180</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="18">
         <v>2</v>
@@ -8550,7 +8536,7 @@
         <v>991198</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H41" s="19">
         <v>2</v>
@@ -8561,7 +8547,7 @@
         <v>992234</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M41" s="33">
         <v>3</v>
@@ -8593,10 +8579,10 @@
       <c r="D42" s="18"/>
       <c r="E42" s="130"/>
       <c r="F42" s="138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="35">
         <v>3</v>
@@ -8607,7 +8593,7 @@
         <v>992161</v>
       </c>
       <c r="L42" s="135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M42" s="135">
         <v>2</v>
@@ -8631,7 +8617,7 @@
         <v>991183</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="18">
         <v>3</v>
@@ -8642,7 +8628,7 @@
         <v>991199</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H43" s="35">
         <v>3</v>
@@ -8657,7 +8643,7 @@
         <v>992217</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R43" s="18">
         <v>3</v>
@@ -8670,7 +8656,7 @@
         <v>991185</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="18">
         <v>3</v>
@@ -8681,7 +8667,7 @@
         <v>991206</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H44" s="36">
         <v>2</v>
@@ -8696,7 +8682,7 @@
         <v>992140</v>
       </c>
       <c r="Q44" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R44" s="18">
         <v>3</v>
@@ -8709,7 +8695,7 @@
         <v>991187</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="18">
         <v>3</v>
@@ -8720,7 +8706,7 @@
         <v>991212</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H45" s="36">
         <v>2</v>
@@ -8736,7 +8722,7 @@
         <v>992220</v>
       </c>
       <c r="Q45" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R45" s="18">
         <v>2</v>
@@ -8749,7 +8735,7 @@
         <v>991188</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="18">
         <v>3</v>
@@ -8760,7 +8746,7 @@
         <v>991074</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H46" s="39">
         <v>3</v>
@@ -8776,7 +8762,7 @@
         <v>992222</v>
       </c>
       <c r="Q46" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R46" s="18">
         <v>3</v>
@@ -8789,7 +8775,7 @@
         <v>991189</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C47" s="18">
         <v>3</v>
@@ -8800,7 +8786,7 @@
         <v>991155</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H47" s="39">
         <v>3</v>
@@ -8816,7 +8802,7 @@
         <v>992223</v>
       </c>
       <c r="Q47" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R47" s="18">
         <v>3</v>
@@ -8829,7 +8815,7 @@
         <v>991190</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C48" s="18">
         <v>3</v>
@@ -8840,7 +8826,7 @@
         <v>991214</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H48" s="19">
         <v>3</v>
@@ -8856,7 +8842,7 @@
         <v>992225</v>
       </c>
       <c r="Q48" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R48" s="18">
         <v>2</v>
@@ -8869,7 +8855,7 @@
         <v>991191</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" s="18">
         <v>3</v>
@@ -8880,7 +8866,7 @@
         <v>991220</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H49" s="19">
         <v>3</v>
@@ -8896,7 +8882,7 @@
         <v>992110</v>
       </c>
       <c r="Q49" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R49" s="18">
         <v>2</v>
@@ -8909,7 +8895,7 @@
         <v>991193</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="18">
         <v>3</v>
@@ -8920,7 +8906,7 @@
         <v>991219</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H50" s="19">
         <v>2</v>
@@ -8935,7 +8921,7 @@
         <v>992226</v>
       </c>
       <c r="Q50" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R50" s="18">
         <v>3</v>
@@ -8948,7 +8934,7 @@
         <v>991186</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="18">
         <v>3</v>
@@ -8959,7 +8945,7 @@
         <v>991225</v>
       </c>
       <c r="G51" s="121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H51" s="121">
         <v>2</v>
@@ -8974,7 +8960,7 @@
         <v>992230</v>
       </c>
       <c r="Q51" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R51" s="18">
         <v>2</v>
@@ -8988,7 +8974,7 @@
         <v>991201</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C52" s="18">
         <v>3</v>
@@ -8999,7 +8985,7 @@
         <v>992096</v>
       </c>
       <c r="G52" s="143" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H52" s="143">
         <v>2</v>
@@ -9014,7 +9000,7 @@
         <v>992232</v>
       </c>
       <c r="Q52" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R52" s="35">
         <v>2</v>
@@ -9028,7 +9014,7 @@
         <v>991202</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" s="18">
         <v>3</v>
@@ -9046,7 +9032,7 @@
         <v>993008</v>
       </c>
       <c r="Q53" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R53" s="35">
         <v>2</v>
@@ -9060,7 +9046,7 @@
         <v>991204</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C54" s="33">
         <v>3</v>
@@ -9074,7 +9060,7 @@
         <v>510019</v>
       </c>
       <c r="Q54" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R54" s="35">
         <v>2</v>
@@ -9088,7 +9074,7 @@
         <v>991207</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="33">
         <v>2</v>
@@ -9102,7 +9088,7 @@
         <v>991205</v>
       </c>
       <c r="Q55" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R55" s="39">
         <v>3</v>
@@ -9116,7 +9102,7 @@
         <v>991209</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="33">
         <v>3</v>
@@ -9125,7 +9111,7 @@
       <c r="E56" s="132"/>
       <c r="G56" s="38"/>
       <c r="H56" s="242" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I56" s="243"/>
       <c r="J56" s="243"/>
@@ -9138,7 +9124,7 @@
         <v>992235</v>
       </c>
       <c r="Q56" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R56" s="35">
         <v>2</v>
@@ -9152,7 +9138,7 @@
         <v>991210</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C57" s="33">
         <v>2</v>
@@ -9172,7 +9158,7 @@
         <v>992236</v>
       </c>
       <c r="Q57" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R57" s="35">
         <v>2</v>
@@ -9186,7 +9172,7 @@
         <v>991211</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C58" s="33">
         <v>2</v>
@@ -9206,7 +9192,7 @@
         <v>992238</v>
       </c>
       <c r="Q58" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R58" s="35">
         <v>2</v>
@@ -9220,7 +9206,7 @@
         <v>991203</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C59" s="33">
         <v>3</v>
@@ -9241,7 +9227,7 @@
         <v>992237</v>
       </c>
       <c r="Q59" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R59" s="35">
         <v>3</v>
@@ -9254,7 +9240,7 @@
         <v>991200</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" s="35">
         <v>3</v>
@@ -9275,7 +9261,7 @@
         <v>590007</v>
       </c>
       <c r="Q60" s="143" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R60" s="143">
         <v>3</v>
@@ -9288,7 +9274,7 @@
         <v>991213</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C61" s="35">
         <v>3</v>
@@ -9315,7 +9301,7 @@
         <v>991216</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C62" s="35">
         <v>3</v>
@@ -9342,7 +9328,7 @@
         <v>991217</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C63" s="35">
         <v>2</v>
@@ -9367,7 +9353,7 @@
         <v>991218</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C64" s="35">
         <v>1</v>
@@ -9392,7 +9378,7 @@
         <v>991221</v>
       </c>
       <c r="B65" s="135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" s="135">
         <v>3</v>
@@ -9495,8 +9481,8 @@
   </sheetPr>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="25.8" x14ac:dyDescent="0.3"/>
@@ -9523,7 +9509,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A1" s="150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1" s="151" t="s">
         <v>112</v>
@@ -9538,7 +9524,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G1" s="151" t="s">
         <v>113</v>
@@ -9553,10 +9539,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L1" s="151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M1" s="152" t="s">
         <v>1</v>
@@ -9568,10 +9554,10 @@
         <v>3</v>
       </c>
       <c r="P1" s="150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q1" s="179" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R1" s="152" t="s">
         <v>1</v>
@@ -9588,7 +9574,7 @@
         <v>993023</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C2" s="14">
         <v>2</v>
@@ -9596,10 +9582,10 @@
       <c r="D2" s="14"/>
       <c r="E2" s="154"/>
       <c r="F2" s="145" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2" s="14">
         <v>2</v>
@@ -9607,10 +9593,10 @@
       <c r="I2" s="14"/>
       <c r="J2" s="154"/>
       <c r="K2" s="145" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M2" s="14">
         <v>2</v>
@@ -9618,7 +9604,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
       <c r="P2" s="145" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>114</v>
@@ -9631,7 +9617,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="145" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>118</v>
@@ -9642,7 +9628,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="154"/>
       <c r="F3" s="145" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>115</v>
@@ -9653,7 +9639,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="154"/>
       <c r="K3" s="145" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>116</v>
@@ -9664,7 +9650,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
       <c r="P3" s="145" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q3" s="20" t="s">
         <v>117</v>
@@ -9677,7 +9663,7 @@
     </row>
     <row r="4" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>122</v>
@@ -9688,7 +9674,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="154"/>
       <c r="F4" s="145" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>119</v>
@@ -9699,7 +9685,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="154"/>
       <c r="K4" s="145" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>120</v>
@@ -9710,7 +9696,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="15"/>
       <c r="P4" s="145" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q4" s="20" t="s">
         <v>121</v>
@@ -9723,7 +9709,7 @@
     </row>
     <row r="5" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A5" s="145" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>124</v>
@@ -9734,7 +9720,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="154"/>
       <c r="F5" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>123</v>
@@ -9745,10 +9731,10 @@
       <c r="I5" s="14"/>
       <c r="J5" s="154"/>
       <c r="K5" s="145" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="16">
         <v>3</v>
@@ -9756,10 +9742,10 @@
       <c r="N5" s="14"/>
       <c r="O5" s="15"/>
       <c r="P5" s="145" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R5" s="14">
         <v>3</v>
@@ -9769,7 +9755,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>126</v>
@@ -9780,7 +9766,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="154"/>
       <c r="F6" s="145" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>125</v>
@@ -9791,10 +9777,10 @@
       <c r="I6" s="14"/>
       <c r="J6" s="154"/>
       <c r="K6" s="145" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M6" s="16">
         <v>2</v>
@@ -9802,7 +9788,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
       <c r="P6" s="145" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>128</v>
@@ -9815,7 +9801,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>129</v>
@@ -9826,7 +9812,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="154"/>
       <c r="F7" s="145" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>127</v>
@@ -9837,10 +9823,10 @@
       <c r="I7" s="14"/>
       <c r="J7" s="154"/>
       <c r="K7" s="145" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M7" s="14">
         <v>2</v>
@@ -9848,7 +9834,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
       <c r="P7" s="145" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q7" s="20" t="s">
         <v>131</v>
@@ -9861,7 +9847,7 @@
     </row>
     <row r="8" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A8" s="145" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>132</v>
@@ -9872,10 +9858,10 @@
       <c r="D8" s="14"/>
       <c r="E8" s="154"/>
       <c r="F8" s="145" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -9883,10 +9869,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="154"/>
       <c r="K8" s="145" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M8" s="14">
         <v>3</v>
@@ -9894,7 +9880,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
       <c r="P8" s="145" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>135</v>
@@ -9907,7 +9893,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="145" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>136</v>
@@ -9918,7 +9904,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="154"/>
       <c r="F9" s="145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>130</v>
@@ -9929,10 +9915,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="154"/>
       <c r="K9" s="145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M9" s="14">
         <v>2</v>
@@ -9940,7 +9926,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
       <c r="P9" s="145" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q9" s="20" t="s">
         <v>139</v>
@@ -9953,7 +9939,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="145" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>140</v>
@@ -9964,7 +9950,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="154"/>
       <c r="F10" s="145" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>133</v>
@@ -9975,10 +9961,10 @@
       <c r="I10" s="14"/>
       <c r="J10" s="154"/>
       <c r="K10" s="145" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M10" s="14">
         <v>2</v>
@@ -9986,7 +9972,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
       <c r="P10" s="145" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q10" s="20" t="s">
         <v>143</v>
@@ -9999,7 +9985,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="145" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>144</v>
@@ -10010,7 +9996,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="154"/>
       <c r="F11" s="145" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>137</v>
@@ -10021,10 +10007,10 @@
       <c r="I11" s="14"/>
       <c r="J11" s="154"/>
       <c r="K11" s="145" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M11" s="14">
         <v>3</v>
@@ -10032,7 +10018,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
       <c r="P11" s="145" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>146</v>
@@ -10045,7 +10031,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="145" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>149</v>
@@ -10056,7 +10042,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="154"/>
       <c r="F12" s="145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>141</v>
@@ -10067,10 +10053,10 @@
       <c r="I12" s="14"/>
       <c r="J12" s="154"/>
       <c r="K12" s="145" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M12" s="14">
         <v>3</v>
@@ -10078,10 +10064,10 @@
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="145" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R12" s="14">
         <v>2</v>
@@ -10091,7 +10077,7 @@
     </row>
     <row r="13" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A13" s="145" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>156</v>
@@ -10102,7 +10088,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="154"/>
       <c r="F13" s="145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>145</v>
@@ -10113,10 +10099,10 @@
       <c r="I13" s="14"/>
       <c r="J13" s="154"/>
       <c r="K13" s="145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M13" s="14">
         <v>3</v>
@@ -10124,7 +10110,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
       <c r="P13" s="145" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>152</v>
@@ -10137,7 +10123,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="145" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>158</v>
@@ -10148,7 +10134,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="154"/>
       <c r="F14" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>147</v>
@@ -10159,10 +10145,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="154"/>
       <c r="K14" s="145" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M14" s="14">
         <v>2</v>
@@ -10170,7 +10156,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
       <c r="P14" s="145" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q14" s="20" t="s">
         <v>155</v>
@@ -10183,10 +10169,10 @@
     </row>
     <row r="15" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A15" s="145" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>159</v>
+        <v>710</v>
       </c>
       <c r="C15" s="14">
         <v>3</v>
@@ -10194,7 +10180,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="154"/>
       <c r="F15" s="145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>150</v>
@@ -10205,7 +10191,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="154"/>
       <c r="K15" s="145" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>134</v>
@@ -10216,7 +10202,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q15" s="20" t="s">
         <v>157</v>
@@ -10229,10 +10215,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="145" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -10240,7 +10226,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="154"/>
       <c r="F16" s="145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>153</v>
@@ -10251,7 +10237,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="154"/>
       <c r="K16" s="145" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>138</v>
@@ -10265,7 +10251,7 @@
         <v>994063</v>
       </c>
       <c r="Q16" s="172" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R16" s="14">
         <v>1</v>
@@ -10275,10 +10261,10 @@
     </row>
     <row r="17" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A17" s="145" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="14">
         <v>2</v>
@@ -10286,10 +10272,10 @@
       <c r="D17" s="14"/>
       <c r="E17" s="154"/>
       <c r="F17" s="145" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
@@ -10297,7 +10283,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="154"/>
       <c r="K17" s="145" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>142</v>
@@ -10308,10 +10294,10 @@
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
       <c r="P17" s="145" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="14">
         <v>3</v>
@@ -10321,10 +10307,10 @@
     </row>
     <row r="18" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="145" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
@@ -10332,10 +10318,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="154"/>
       <c r="F18" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H18" s="14">
         <v>3</v>
@@ -10343,10 +10329,10 @@
       <c r="I18" s="14"/>
       <c r="J18" s="154"/>
       <c r="K18" s="145" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="14">
         <v>3</v>
@@ -10354,10 +10340,10 @@
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
       <c r="P18" s="145" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R18" s="14">
         <v>3</v>
@@ -10367,10 +10353,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="145" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -10378,10 +10364,10 @@
       <c r="D19" s="14"/>
       <c r="E19" s="154"/>
       <c r="F19" s="145" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H19" s="14">
         <v>3</v>
@@ -10389,7 +10375,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="154"/>
       <c r="K19" s="145" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>148</v>
@@ -10400,10 +10386,10 @@
       <c r="N19" s="14"/>
       <c r="O19" s="15"/>
       <c r="P19" s="145" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R19" s="14">
         <v>2</v>
@@ -10413,10 +10399,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
@@ -10424,10 +10410,10 @@
       <c r="D20" s="14"/>
       <c r="E20" s="154"/>
       <c r="F20" s="145" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="14">
         <v>3</v>
@@ -10435,7 +10421,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="154"/>
       <c r="K20" s="145" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>151</v>
@@ -10446,10 +10432,10 @@
       <c r="N20" s="14"/>
       <c r="O20" s="15"/>
       <c r="P20" s="145" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R20" s="14">
         <v>3</v>
@@ -10459,10 +10445,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="145" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
@@ -10470,10 +10456,10 @@
       <c r="D21" s="14"/>
       <c r="E21" s="154"/>
       <c r="F21" s="145" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" s="14">
         <v>3</v>
@@ -10481,10 +10467,10 @@
       <c r="I21" s="14"/>
       <c r="J21" s="154"/>
       <c r="K21" s="145" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M21" s="14">
         <v>3</v>
@@ -10492,10 +10478,10 @@
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
       <c r="P21" s="145" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R21" s="14">
         <v>1</v>
@@ -10505,10 +10491,10 @@
     </row>
     <row r="22" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -10516,10 +10502,10 @@
       <c r="D22" s="14"/>
       <c r="E22" s="154"/>
       <c r="F22" s="145" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
@@ -10527,10 +10513,10 @@
       <c r="I22" s="14"/>
       <c r="J22" s="154"/>
       <c r="K22" s="145" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M22" s="14">
         <v>3</v>
@@ -10538,10 +10524,10 @@
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
       <c r="P22" s="145" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" s="14">
         <v>3</v>
@@ -10551,10 +10537,10 @@
     </row>
     <row r="23" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A23" s="145" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -10562,10 +10548,10 @@
       <c r="D23" s="14"/>
       <c r="E23" s="154"/>
       <c r="F23" s="145" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H23" s="14">
         <v>2</v>
@@ -10573,7 +10559,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="154"/>
       <c r="K23" s="145" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>154</v>
@@ -10584,10 +10570,10 @@
       <c r="N23" s="14"/>
       <c r="O23" s="15"/>
       <c r="P23" s="145" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R23" s="14">
         <v>2</v>
@@ -10597,10 +10583,10 @@
     </row>
     <row r="24" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A24" s="145" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="14">
         <v>2</v>
@@ -10608,10 +10594,10 @@
       <c r="D24" s="14"/>
       <c r="E24" s="154"/>
       <c r="F24" s="145" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="14">
         <v>1</v>
@@ -10619,10 +10605,10 @@
       <c r="I24" s="14"/>
       <c r="J24" s="154"/>
       <c r="K24" s="145" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M24" s="14">
         <v>3</v>
@@ -10630,10 +10616,10 @@
       <c r="N24" s="14"/>
       <c r="O24" s="15"/>
       <c r="P24" s="145" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R24" s="14">
         <v>3</v>
@@ -10643,10 +10629,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="145" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="14">
         <v>3</v>
@@ -10654,10 +10640,10 @@
       <c r="D25" s="14"/>
       <c r="E25" s="154"/>
       <c r="F25" s="145" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H25" s="14">
         <v>3</v>
@@ -10665,10 +10651,10 @@
       <c r="I25" s="14"/>
       <c r="J25" s="154"/>
       <c r="K25" s="145" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M25" s="14">
         <v>2</v>
@@ -10676,10 +10662,10 @@
       <c r="N25" s="14"/>
       <c r="O25" s="15"/>
       <c r="P25" s="145" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q25" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R25" s="14">
         <v>2</v>
@@ -10689,10 +10675,10 @@
     </row>
     <row r="26" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A26" s="145" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="14">
         <v>3</v>
@@ -10700,10 +10686,10 @@
       <c r="D26" s="14"/>
       <c r="E26" s="154"/>
       <c r="F26" s="145" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="14">
         <v>3</v>
@@ -10711,10 +10697,10 @@
       <c r="I26" s="14"/>
       <c r="J26" s="154"/>
       <c r="K26" s="145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M26" s="14">
         <v>2</v>
@@ -10722,10 +10708,10 @@
       <c r="N26" s="14"/>
       <c r="O26" s="15"/>
       <c r="P26" s="145" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R26" s="14">
         <v>1</v>
@@ -10735,10 +10721,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="145" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="14">
         <v>2</v>
@@ -10746,10 +10732,10 @@
       <c r="D27" s="14"/>
       <c r="E27" s="154"/>
       <c r="F27" s="145" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" s="14">
         <v>2</v>
@@ -10757,10 +10743,10 @@
       <c r="I27" s="14"/>
       <c r="J27" s="154"/>
       <c r="K27" s="145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M27" s="14">
         <v>3</v>
@@ -10768,10 +10754,10 @@
       <c r="N27" s="14"/>
       <c r="O27" s="15"/>
       <c r="P27" s="145" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R27" s="14">
         <v>3</v>
@@ -10781,10 +10767,10 @@
     </row>
     <row r="28" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A28" s="145" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="14">
         <v>3</v>
@@ -10792,10 +10778,10 @@
       <c r="D28" s="14"/>
       <c r="E28" s="154"/>
       <c r="F28" s="145" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="14">
         <v>2</v>
@@ -10803,10 +10789,10 @@
       <c r="I28" s="14"/>
       <c r="J28" s="154"/>
       <c r="K28" s="145" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M28" s="14">
         <v>2</v>
@@ -10814,10 +10800,10 @@
       <c r="N28" s="14"/>
       <c r="O28" s="15"/>
       <c r="P28" s="145" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R28" s="14">
         <v>1</v>
@@ -10827,10 +10813,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="145" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="14">
         <v>3</v>
@@ -10838,10 +10824,10 @@
       <c r="D29" s="14"/>
       <c r="E29" s="154"/>
       <c r="F29" s="145" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29" s="14">
         <v>2</v>
@@ -10849,10 +10835,10 @@
       <c r="I29" s="14"/>
       <c r="J29" s="154"/>
       <c r="K29" s="145" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M29" s="14">
         <v>3</v>
@@ -10860,10 +10846,10 @@
       <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="145" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R29" s="14">
         <v>1</v>
@@ -10873,10 +10859,10 @@
     </row>
     <row r="30" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A30" s="145" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="14">
         <v>3</v>
@@ -10884,10 +10870,10 @@
       <c r="D30" s="14"/>
       <c r="E30" s="154"/>
       <c r="F30" s="145" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="14">
         <v>3</v>
@@ -10895,10 +10881,10 @@
       <c r="I30" s="14"/>
       <c r="J30" s="154"/>
       <c r="K30" s="145" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M30" s="14">
         <v>3</v>
@@ -10906,10 +10892,10 @@
       <c r="N30" s="14"/>
       <c r="O30" s="15"/>
       <c r="P30" s="145" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R30" s="14">
         <v>1</v>
@@ -10919,10 +10905,10 @@
     </row>
     <row r="31" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A31" s="145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="14">
         <v>3</v>
@@ -10930,10 +10916,10 @@
       <c r="D31" s="41"/>
       <c r="E31" s="155"/>
       <c r="F31" s="145" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H31" s="14">
         <v>2</v>
@@ -10941,10 +10927,10 @@
       <c r="I31" s="14"/>
       <c r="J31" s="154"/>
       <c r="K31" s="145" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M31" s="14">
         <v>3</v>
@@ -10952,10 +10938,10 @@
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
       <c r="P31" s="145" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R31" s="14">
         <v>3</v>
@@ -10965,10 +10951,10 @@
     </row>
     <row r="32" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A32" s="145" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C32" s="14">
         <v>3</v>
@@ -10976,10 +10962,10 @@
       <c r="D32" s="41"/>
       <c r="E32" s="155"/>
       <c r="F32" s="145" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="14">
         <v>2</v>
@@ -10987,10 +10973,10 @@
       <c r="I32" s="14"/>
       <c r="J32" s="154"/>
       <c r="K32" s="145" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M32" s="14">
         <v>3</v>
@@ -10998,10 +10984,10 @@
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
       <c r="P32" s="145" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R32" s="14">
         <v>3</v>
@@ -11011,10 +10997,10 @@
     </row>
     <row r="33" spans="1:20" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A33" s="145" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="14">
         <v>2</v>
@@ -11022,10 +11008,10 @@
       <c r="D33" s="41"/>
       <c r="E33" s="155"/>
       <c r="F33" s="145" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H33" s="14">
         <v>3</v>
@@ -11033,10 +11019,10 @@
       <c r="I33" s="14"/>
       <c r="J33" s="154"/>
       <c r="K33" s="145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M33" s="14">
         <v>2</v>
@@ -11044,10 +11030,10 @@
       <c r="N33" s="14"/>
       <c r="O33" s="15"/>
       <c r="P33" s="145" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q33" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R33" s="14">
         <v>3</v>
@@ -11057,10 +11043,10 @@
     </row>
     <row r="34" spans="1:20" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A34" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="14">
         <v>2</v>
@@ -11068,10 +11054,10 @@
       <c r="D34" s="41"/>
       <c r="E34" s="155"/>
       <c r="F34" s="145" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="14">
         <v>2</v>
@@ -11079,10 +11065,10 @@
       <c r="I34" s="14"/>
       <c r="J34" s="154"/>
       <c r="K34" s="145" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L34" s="123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M34" s="34">
         <v>3</v>
@@ -11090,10 +11076,10 @@
       <c r="N34" s="41"/>
       <c r="O34" s="167"/>
       <c r="P34" s="145" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q34" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R34" s="14">
         <v>3</v>
@@ -11103,10 +11089,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A35" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="14">
         <v>1</v>
@@ -11114,10 +11100,10 @@
       <c r="D35" s="41"/>
       <c r="E35" s="155"/>
       <c r="F35" s="145" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" s="14">
         <v>3</v>
@@ -11125,10 +11111,10 @@
       <c r="I35" s="14"/>
       <c r="J35" s="154"/>
       <c r="K35" s="145" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L35" s="123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M35" s="34">
         <v>2</v>
@@ -11136,10 +11122,10 @@
       <c r="N35" s="41"/>
       <c r="O35" s="167"/>
       <c r="P35" s="145" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R35" s="173">
         <v>3</v>
@@ -11149,10 +11135,10 @@
     </row>
     <row r="36" spans="1:20" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A36" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
@@ -11160,10 +11146,10 @@
       <c r="D36" s="41"/>
       <c r="E36" s="155"/>
       <c r="F36" s="145" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="14">
         <v>3</v>
@@ -11171,10 +11157,10 @@
       <c r="I36" s="41"/>
       <c r="J36" s="155"/>
       <c r="K36" s="145" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L36" s="123" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M36" s="34">
         <v>3</v>
@@ -11182,10 +11168,10 @@
       <c r="N36" s="41"/>
       <c r="O36" s="167"/>
       <c r="P36" s="145" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q36" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R36" s="14">
         <v>3</v>
@@ -11195,10 +11181,10 @@
     </row>
     <row r="37" spans="1:20" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A37" s="145" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C37" s="14">
         <v>3</v>
@@ -11206,10 +11192,10 @@
       <c r="D37" s="41"/>
       <c r="E37" s="155"/>
       <c r="F37" s="145" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="14">
         <v>2</v>
@@ -11217,10 +11203,10 @@
       <c r="I37" s="41"/>
       <c r="J37" s="155"/>
       <c r="K37" s="145" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L37" s="123" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M37" s="34">
         <v>3</v>
@@ -11228,10 +11214,10 @@
       <c r="N37" s="41"/>
       <c r="O37" s="167"/>
       <c r="P37" s="145" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R37" s="14">
         <v>3</v>
@@ -11241,10 +11227,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A38" s="145" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="14">
         <v>2</v>
@@ -11252,10 +11238,10 @@
       <c r="D38" s="41"/>
       <c r="E38" s="155"/>
       <c r="F38" s="145" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H38" s="14">
         <v>2</v>
@@ -11263,10 +11249,10 @@
       <c r="I38" s="41"/>
       <c r="J38" s="155"/>
       <c r="K38" s="145" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L38" s="123" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M38" s="34">
         <v>2</v>
@@ -11274,10 +11260,10 @@
       <c r="N38" s="41"/>
       <c r="O38" s="167"/>
       <c r="P38" s="145" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q38" s="123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R38" s="16">
         <v>2</v>
@@ -11287,10 +11273,10 @@
     </row>
     <row r="39" spans="1:20" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="145" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="14">
         <v>2</v>
@@ -11298,10 +11284,10 @@
       <c r="D39" s="41"/>
       <c r="E39" s="155"/>
       <c r="F39" s="145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" s="14">
         <v>3</v>
@@ -11312,7 +11298,7 @@
         <v>994123</v>
       </c>
       <c r="L39" s="160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M39" s="160">
         <v>2</v>
@@ -11320,10 +11306,10 @@
       <c r="N39" s="166"/>
       <c r="O39" s="178"/>
       <c r="P39" s="145" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q39" s="123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R39" s="16">
         <v>2</v>
@@ -11333,10 +11319,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B40" s="123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C40" s="16">
         <v>2</v>
@@ -11344,10 +11330,10 @@
       <c r="D40" s="42"/>
       <c r="E40" s="156"/>
       <c r="F40" s="145" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H40" s="16">
         <v>3</v>
@@ -11355,13 +11341,13 @@
       <c r="I40" s="41"/>
       <c r="J40" s="167"/>
       <c r="K40" s="150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L40" s="187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M40" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N40" s="188" t="s">
         <v>2</v>
@@ -11373,7 +11359,7 @@
         <v>994122</v>
       </c>
       <c r="Q40" s="175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R40" s="16">
         <v>2</v>
@@ -11383,10 +11369,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B41" s="123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="16">
         <v>2</v>
@@ -11394,10 +11380,10 @@
       <c r="D41" s="42"/>
       <c r="E41" s="156"/>
       <c r="F41" s="145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H41" s="16">
         <v>2</v>
@@ -11405,10 +11391,10 @@
       <c r="I41" s="41"/>
       <c r="J41" s="167"/>
       <c r="K41" s="145" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M41" s="14">
         <v>3</v>
@@ -11419,7 +11405,7 @@
         <v>994124</v>
       </c>
       <c r="Q41" s="176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R41" s="176">
         <v>2</v>
@@ -11429,10 +11415,10 @@
     </row>
     <row r="42" spans="1:20" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B42" s="123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" s="16">
         <v>2</v>
@@ -11443,7 +11429,7 @@
         <v>510003</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H42" s="16">
         <v>2</v>
@@ -11451,10 +11437,10 @@
       <c r="I42" s="41"/>
       <c r="J42" s="167"/>
       <c r="K42" s="145" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M42" s="14">
         <v>3</v>
@@ -11465,7 +11451,7 @@
         <v>994125</v>
       </c>
       <c r="Q42" s="182" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R42" s="182">
         <v>1</v>
@@ -11475,10 +11461,10 @@
     </row>
     <row r="43" spans="1:20" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="145" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B43" s="123" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" s="16">
         <v>3</v>
@@ -11489,7 +11475,7 @@
         <v>600009</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H43" s="159">
         <v>2</v>
@@ -11497,10 +11483,10 @@
       <c r="I43" s="165"/>
       <c r="J43" s="168"/>
       <c r="K43" s="145" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M43" s="14">
         <v>3</v>
@@ -11514,7 +11500,7 @@
         <v>590008</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" s="124">
         <v>2</v>
@@ -11522,10 +11508,10 @@
       <c r="D44" s="42"/>
       <c r="E44" s="156"/>
       <c r="K44" s="145" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M44" s="14">
         <v>2</v>
@@ -11539,7 +11525,7 @@
         <v>993161</v>
       </c>
       <c r="B45" s="159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C45" s="160">
         <v>2</v>
@@ -11547,10 +11533,10 @@
       <c r="D45" s="161"/>
       <c r="E45" s="162"/>
       <c r="K45" s="145" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M45" s="14">
         <v>3</v>
@@ -11564,7 +11550,7 @@
         <v>994020</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M46" s="16">
         <v>3</v>
@@ -11575,10 +11561,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K47" s="145" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M47" s="14">
         <v>3</v>
@@ -11588,10 +11574,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K48" s="145" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M48" s="14">
         <v>3</v>
@@ -11601,10 +11587,10 @@
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K49" s="145" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M49" s="14">
         <v>1</v>
@@ -11614,10 +11600,10 @@
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K50" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M50" s="14">
         <v>3</v>
@@ -11627,10 +11613,10 @@
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K51" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M51" s="14">
         <v>3</v>
@@ -11640,10 +11626,10 @@
     </row>
     <row r="52" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K52" s="145" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M52" s="14">
         <v>3</v>
@@ -11653,10 +11639,10 @@
     </row>
     <row r="53" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K53" s="145" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M53" s="14">
         <v>3</v>
@@ -11666,10 +11652,10 @@
     </row>
     <row r="54" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K54" s="145" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M54" s="14">
         <v>1</v>
@@ -11679,10 +11665,10 @@
     </row>
     <row r="55" spans="11:15" ht="51.6" x14ac:dyDescent="0.3">
       <c r="K55" s="145" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M55" s="14">
         <v>3</v>
@@ -11692,10 +11678,10 @@
     </row>
     <row r="56" spans="11:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K56" s="169" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L56" s="170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M56" s="170">
         <v>3</v>

--- a/media/Excel/109_data.xlsx
+++ b/media/Excel/109_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD01FA-69D1-4BEA-B750-AC0F7EA25C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC885E-605B-43DE-9564-470C4DC49E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必修" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="712">
   <si>
     <t>共同必修
 (12學分)</t>
@@ -2696,6 +2696,10 @@
   </si>
   <si>
     <t>Python程式設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動舞蹈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4108,6 +4112,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4126,34 +4142,22 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,8 +4473,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4924,9 +4928,15 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="3">
+        <v>902055</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.5</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -5473,10 +5483,10 @@
       <c r="H12" s="89">
         <v>3</v>
       </c>
-      <c r="I12" s="226" t="s">
+      <c r="I12" s="230" t="s">
         <v>676</v>
       </c>
-      <c r="J12" s="227"/>
+      <c r="J12" s="231"/>
       <c r="K12" s="71">
         <v>130089</v>
       </c>
@@ -5510,10 +5520,10 @@
       <c r="H13" s="87">
         <v>3</v>
       </c>
-      <c r="I13" s="226" t="s">
+      <c r="I13" s="230" t="s">
         <v>676</v>
       </c>
-      <c r="J13" s="227"/>
+      <c r="J13" s="231"/>
       <c r="K13" s="109">
         <v>130099</v>
       </c>
@@ -5523,10 +5533,10 @@
       <c r="M13" s="111">
         <v>3</v>
       </c>
-      <c r="N13" s="234" t="s">
+      <c r="N13" s="228" t="s">
         <v>676</v>
       </c>
-      <c r="O13" s="235"/>
+      <c r="O13" s="229"/>
     </row>
     <row r="14" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
@@ -5549,10 +5559,10 @@
       <c r="H14" s="87">
         <v>3</v>
       </c>
-      <c r="I14" s="226" t="s">
+      <c r="I14" s="230" t="s">
         <v>676</v>
       </c>
-      <c r="J14" s="227"/>
+      <c r="J14" s="231"/>
       <c r="K14" s="109">
         <v>130100</v>
       </c>
@@ -5562,10 +5572,10 @@
       <c r="M14" s="111">
         <v>3</v>
       </c>
-      <c r="N14" s="234" t="s">
+      <c r="N14" s="228" t="s">
         <v>676</v>
       </c>
-      <c r="O14" s="235"/>
+      <c r="O14" s="229"/>
     </row>
     <row r="15" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
@@ -5588,10 +5598,10 @@
       <c r="H15" s="84">
         <v>3</v>
       </c>
-      <c r="I15" s="228" t="s">
+      <c r="I15" s="232" t="s">
         <v>674</v>
       </c>
-      <c r="J15" s="229"/>
+      <c r="J15" s="233"/>
       <c r="K15" s="109">
         <v>130101</v>
       </c>
@@ -5601,10 +5611,10 @@
       <c r="M15" s="111">
         <v>3</v>
       </c>
-      <c r="N15" s="234" t="s">
+      <c r="N15" s="228" t="s">
         <v>676</v>
       </c>
-      <c r="O15" s="235"/>
+      <c r="O15" s="229"/>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
@@ -5627,10 +5637,10 @@
       <c r="H16" s="84">
         <v>3</v>
       </c>
-      <c r="I16" s="228" t="s">
+      <c r="I16" s="232" t="s">
         <v>674</v>
       </c>
-      <c r="J16" s="229"/>
+      <c r="J16" s="233"/>
       <c r="K16" s="109">
         <v>130102</v>
       </c>
@@ -5640,10 +5650,10 @@
       <c r="M16" s="111">
         <v>3</v>
       </c>
-      <c r="N16" s="234" t="s">
+      <c r="N16" s="228" t="s">
         <v>676</v>
       </c>
-      <c r="O16" s="235"/>
+      <c r="O16" s="229"/>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="72">
@@ -5666,10 +5676,10 @@
       <c r="H17" s="113">
         <v>3</v>
       </c>
-      <c r="I17" s="230" t="s">
+      <c r="I17" s="234" t="s">
         <v>675</v>
       </c>
-      <c r="J17" s="231"/>
+      <c r="J17" s="235"/>
       <c r="K17" s="106">
         <v>135086</v>
       </c>
@@ -5679,10 +5689,10 @@
       <c r="M17" s="108">
         <v>3</v>
       </c>
-      <c r="N17" s="232" t="s">
+      <c r="N17" s="226" t="s">
         <v>674</v>
       </c>
-      <c r="O17" s="233"/>
+      <c r="O17" s="227"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
@@ -5828,17 +5838,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5916,10 +5926,10 @@
       <c r="C2" s="104">
         <v>1</v>
       </c>
-      <c r="D2" s="237" t="s">
+      <c r="D2" s="238" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="237"/>
+      <c r="E2" s="238"/>
       <c r="F2" s="192">
         <v>135117</v>
       </c>
@@ -5945,10 +5955,10 @@
       <c r="C3" s="104">
         <v>1</v>
       </c>
-      <c r="D3" s="237" t="s">
+      <c r="D3" s="238" t="s">
         <v>677</v>
       </c>
-      <c r="E3" s="237"/>
+      <c r="E3" s="238"/>
       <c r="F3" s="192">
         <v>130103</v>
       </c>
@@ -6064,10 +6074,10 @@
       <c r="H7" s="104">
         <v>3</v>
       </c>
-      <c r="I7" s="237" t="s">
+      <c r="I7" s="238" t="s">
         <v>679</v>
       </c>
-      <c r="J7" s="237"/>
+      <c r="J7" s="238"/>
       <c r="K7" s="195"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
@@ -6149,10 +6159,10 @@
       <c r="H10" s="89">
         <v>3</v>
       </c>
-      <c r="I10" s="238" t="s">
+      <c r="I10" s="240" t="s">
         <v>687</v>
       </c>
-      <c r="J10" s="238"/>
+      <c r="J10" s="240"/>
       <c r="K10" s="195"/>
       <c r="L10" s="198"/>
       <c r="M10" s="23"/>
@@ -6167,10 +6177,10 @@
       <c r="C11" s="104">
         <v>3</v>
       </c>
-      <c r="D11" s="237" t="s">
+      <c r="D11" s="238" t="s">
         <v>678</v>
       </c>
-      <c r="E11" s="237"/>
+      <c r="E11" s="238"/>
       <c r="F11" s="192">
         <v>135133</v>
       </c>
@@ -6198,10 +6208,10 @@
       <c r="C12" s="104">
         <v>3</v>
       </c>
-      <c r="D12" s="237" t="s">
+      <c r="D12" s="238" t="s">
         <v>679</v>
       </c>
-      <c r="E12" s="237"/>
+      <c r="E12" s="238"/>
       <c r="F12" s="192">
         <v>130105</v>
       </c>
@@ -6227,10 +6237,10 @@
       <c r="C13" s="89">
         <v>3</v>
       </c>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="240" t="s">
         <v>680</v>
       </c>
-      <c r="E13" s="238"/>
+      <c r="E13" s="240"/>
       <c r="F13" s="47">
         <v>510001</v>
       </c>
@@ -6256,10 +6266,10 @@
       <c r="C14" s="111">
         <v>3</v>
       </c>
-      <c r="D14" s="236" t="s">
+      <c r="D14" s="241" t="s">
         <v>682</v>
       </c>
-      <c r="E14" s="236"/>
+      <c r="E14" s="241"/>
       <c r="F14" s="47">
         <v>510002</v>
       </c>
@@ -6285,10 +6295,10 @@
       <c r="C15" s="111">
         <v>3</v>
       </c>
-      <c r="D15" s="236" t="s">
+      <c r="D15" s="241" t="s">
         <v>681</v>
       </c>
-      <c r="E15" s="236"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="47">
         <v>130092</v>
       </c>
@@ -6314,10 +6324,10 @@
       <c r="C16" s="104">
         <v>3</v>
       </c>
-      <c r="D16" s="237" t="s">
+      <c r="D16" s="238" t="s">
         <v>683</v>
       </c>
-      <c r="E16" s="237"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="114">
         <v>130093</v>
       </c>
@@ -6343,10 +6353,10 @@
       <c r="C17" s="104">
         <v>3</v>
       </c>
-      <c r="D17" s="237" t="s">
+      <c r="D17" s="238" t="s">
         <v>683</v>
       </c>
-      <c r="E17" s="237"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="114">
         <v>130106</v>
       </c>
@@ -6426,10 +6436,10 @@
       <c r="C20" s="104">
         <v>3</v>
       </c>
-      <c r="D20" s="237" t="s">
+      <c r="D20" s="238" t="s">
         <v>679</v>
       </c>
-      <c r="E20" s="237"/>
+      <c r="E20" s="238"/>
       <c r="F20" s="83">
         <v>130094</v>
       </c>
@@ -6439,10 +6449,10 @@
       <c r="H20" s="104">
         <v>3</v>
       </c>
-      <c r="I20" s="240" t="s">
+      <c r="I20" s="236" t="s">
         <v>679</v>
       </c>
-      <c r="J20" s="241"/>
+      <c r="J20" s="237"/>
       <c r="K20" s="195"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -6457,10 +6467,10 @@
       <c r="C21" s="104">
         <v>3</v>
       </c>
-      <c r="D21" s="237" t="s">
+      <c r="D21" s="238" t="s">
         <v>683</v>
       </c>
-      <c r="E21" s="237"/>
+      <c r="E21" s="238"/>
       <c r="F21" s="83">
         <v>210013</v>
       </c>
@@ -6470,10 +6480,10 @@
       <c r="H21" s="104">
         <v>3</v>
       </c>
-      <c r="I21" s="240" t="s">
+      <c r="I21" s="236" t="s">
         <v>691</v>
       </c>
-      <c r="J21" s="241"/>
+      <c r="J21" s="237"/>
       <c r="K21" s="195"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -6488,10 +6498,10 @@
       <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="237" t="s">
+      <c r="D22" s="238" t="s">
         <v>684</v>
       </c>
-      <c r="E22" s="237"/>
+      <c r="E22" s="238"/>
       <c r="F22" s="200"/>
       <c r="G22" s="77"/>
       <c r="H22" s="201"/>
@@ -6511,10 +6521,10 @@
       <c r="C23" s="104">
         <v>3</v>
       </c>
-      <c r="D23" s="237" t="s">
+      <c r="D23" s="238" t="s">
         <v>683</v>
       </c>
-      <c r="E23" s="237"/>
+      <c r="E23" s="238"/>
       <c r="F23" s="202"/>
       <c r="G23" s="203"/>
       <c r="H23" s="204"/>
@@ -6609,16 +6619,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -6629,6 +6629,16 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6643,7 +6653,7 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -9481,8 +9491,8 @@
   </sheetPr>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="25.8" x14ac:dyDescent="0.3"/>
